--- a/WebApplication1/Temp/02_bloksaplamaları_formulllllllllll_2020-03-31.xlsx
+++ b/WebApplication1/Temp/02_bloksaplamaları_formulllllllllll_2020-03-31.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve">Engine</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t xml:space="preserve">Tightenig Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">Remarks:</t>
@@ -202,7 +217,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0">
   </numFmts>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,12 +403,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8.00000000000025"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.99999999999975"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -451,13 +460,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8.00000000000025"/>
+      <sz val="9.99999999999975"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.99999999999975"/>
+      <sz val="8.00000000000025"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -519,12 +528,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8.00000000000025"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.99999999999975"/>
       <color rgb="FF000000"/>
@@ -533,12 +536,6 @@
     </font>
     <font>
       <sz val="14.000000000000249"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8.00000000000025"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -1359,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xfId="0" fontId="1" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1425,13 +1422,13 @@
     <xf xfId="0" fontId="22" applyFont="1" applyAlignment="1" borderId="17" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="23" applyFont="1" numFmtId="1" applyNumberFormat="1" applyAlignment="1" borderId="18" applyBorder="1">
+    <xf xfId="0" fontId="23" applyFont="1" applyAlignment="1" borderId="18" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf xfId="0" fontId="24" applyFont="1" applyAlignment="1" borderId="19" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="25" applyFont="1" numFmtId="1" applyNumberFormat="1" applyAlignment="1" borderId="20" applyBorder="1">
+    <xf xfId="0" fontId="25" applyFont="1" applyAlignment="1" borderId="20" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf xfId="0" fontId="26" applyFont="1" applyAlignment="1" borderId="21" applyBorder="1">
@@ -1443,209 +1440,200 @@
     <xf xfId="0" fontId="28" applyFont="1" applyAlignment="1" borderId="23" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="29" applyFont="1" applyAlignment="1" borderId="20" applyBorder="1">
+    <xf xfId="0" fontId="29" applyFont="1" applyAlignment="1" borderId="17" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="30" applyFont="1" applyAlignment="1" borderId="17" applyBorder="1">
+    <xf xfId="0" fontId="30" applyFont="1" applyAlignment="1" borderId="18" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="31" applyFont="1" applyAlignment="1" borderId="18" applyBorder="1">
+    <xf xfId="0" fontId="31" applyFont="1" applyAlignment="1" borderId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="32" applyFont="1" applyAlignment="1" borderId="6" applyBorder="1">
+    <xf xfId="0" fontId="32" applyFont="1" applyAlignment="1" borderId="24" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="33" applyFont="1" applyAlignment="1" borderId="24" applyBorder="1">
+    <xf xfId="0" fontId="33" applyFont="1" numFmtId="1" applyNumberFormat="1" applyAlignment="1" borderId="25" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="34" applyFont="1" numFmtId="1" applyNumberFormat="1" applyAlignment="1" borderId="25" applyBorder="1">
+    <xf xfId="0" fontId="34" applyFont="1" applyAlignment="1" borderId="26" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="35" applyFont="1" numFmtId="1" applyNumberFormat="1" applyAlignment="1" borderId="26" applyBorder="1">
+    <xf xfId="0" fontId="35" applyFont="1" applyAlignment="1" borderId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="36" applyFont="1" applyAlignment="1" borderId="5" applyBorder="1">
+    <xf xfId="0" fontId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="37" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" applyFont="1" applyAlignment="1" borderId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="38" applyFont="1" applyAlignment="1" borderId="10" applyBorder="1">
+    <xf xfId="0" fontId="38" applyFont="1" applyAlignment="1" borderId="24" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="39" applyFont="1" applyAlignment="1" borderId="26" applyBorder="1">
+    <xf xfId="0" fontId="39" applyFont="1" applyAlignment="1" borderId="25" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="40" applyFont="1" applyAlignment="1" borderId="24" applyBorder="1">
+    <xf xfId="0" fontId="40" applyFont="1" applyAlignment="1" borderId="25" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="41" applyFont="1" applyAlignment="1" borderId="25" applyBorder="1">
+    <xf xfId="0" fontId="41" applyFont="1" applyAlignment="1" borderId="8" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="42" applyFont="1" applyAlignment="1" borderId="8" applyBorder="1">
+    <xf xfId="0" fontId="42" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="43" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
+    <xf xfId="0" fontId="43" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="44" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
+    <xf xfId="0" fontId="44" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="45" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
+    <xf xfId="0" fontId="45" applyFont="1" applyAlignment="1" borderId="12" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="46" applyFont="1" applyAlignment="1" borderId="12" applyBorder="1">
+    <xf xfId="0" fontId="46" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="47" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
+    <xf xfId="0" fontId="47" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="48" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
+    <xf xfId="0" fontId="48" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="49" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
+    <xf xfId="0" fontId="49" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="50" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
+    <xf xfId="0" fontId="50" applyFont="1" applyAlignment="1" borderId="16" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="51" applyFont="1" applyAlignment="1" borderId="18" applyBorder="1">
+    <xf xfId="0" fontId="51" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="52" applyFont="1" applyAlignment="1" borderId="16" applyBorder="1">
+    <xf xfId="0" fontId="52" applyFont="1" applyAlignment="1" borderId="3" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="53" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
+    <xf xfId="0" fontId="53" applyFont="1" applyAlignment="1" borderId="30" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="54" applyFont="1" applyAlignment="1" borderId="25" applyBorder="1">
+    <xf xfId="0" fontId="54" applyFont="1" applyAlignment="1" borderId="31" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="55" applyFont="1" applyAlignment="1" borderId="3" applyBorder="1">
+    <xf xfId="0" fontId="55" applyFont="1" applyAlignment="1" borderId="32" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="56" applyFont="1" applyAlignment="1" borderId="30" applyBorder="1">
+    <xf xfId="0" fontId="56" applyFont="1" applyAlignment="1" borderId="33" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="57" applyFont="1" applyAlignment="1" borderId="31" applyBorder="1">
+    <xf xfId="0" fontId="57" applyFont="1" applyAlignment="1" borderId="34" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="58" applyFont="1" applyAlignment="1" borderId="32" applyBorder="1">
+    <xf xfId="0" fontId="58" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="59" applyFont="1" applyAlignment="1" borderId="33" applyBorder="1">
+    <xf xfId="0" fontId="59" applyFont="1" applyAlignment="1" borderId="35" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="60" applyFont="1" applyAlignment="1" borderId="34" applyBorder="1">
+    <xf xfId="0" fontId="60" applyFont="1" applyAlignment="1" borderId="36" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="61" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
+    <xf xfId="0" fontId="61" applyFont="1" applyAlignment="1" borderId="36" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="62" applyFont="1" applyAlignment="1" borderId="35" applyBorder="1">
+    <xf xfId="0" fontId="62" applyFont="1" applyAlignment="1" borderId="37" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="63" applyFont="1" applyAlignment="1" borderId="36" applyBorder="1">
+    <xf xfId="0" fontId="63" applyFont="1" applyAlignment="1" borderId="38" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="64" applyFont="1" applyAlignment="1" borderId="36" applyBorder="1">
+    <xf xfId="0" fontId="64" applyFont="1" applyAlignment="1" borderId="39" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="65" applyFont="1" applyAlignment="1" borderId="37" applyBorder="1">
+    <xf xfId="0" fontId="65" applyFont="1" applyAlignment="1" borderId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="66" applyFont="1" applyAlignment="1" borderId="38" applyBorder="1">
+    <xf xfId="0" fontId="66" applyFont="1" applyAlignment="1" borderId="40" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="67" applyFont="1" applyAlignment="1" borderId="39" applyBorder="1">
+    <xf xfId="0" fontId="67" applyFont="1" applyAlignment="1" borderId="41" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="68" applyFont="1" applyAlignment="1" borderId="6" applyBorder="1">
+    <xf xfId="0" fontId="68" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="69" applyFont="1" applyAlignment="1" borderId="40" applyBorder="1">
+    <xf xfId="0" fontId="69" applyFont="1" applyAlignment="1" borderId="7" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="70" applyFont="1" applyAlignment="1" borderId="41" applyBorder="1">
+    <xf xfId="0" fontId="70" applyFont="1" applyAlignment="1" borderId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="71" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
+    <xf xfId="0" fontId="71" applyFont="1" applyAlignment="1" borderId="42" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="72" applyFont="1" applyAlignment="1" borderId="7" applyBorder="1">
+    <xf xfId="0" fontId="72" applyFont="1" applyAlignment="1" borderId="43" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="73" applyFont="1" applyAlignment="1" borderId="9" applyBorder="1">
+    <xf xfId="0" fontId="73" applyFont="1" applyAlignment="1" borderId="44" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="74" applyFont="1" applyAlignment="1" borderId="42" applyBorder="1">
+    <xf xfId="0" fontId="74" applyFont="1" applyAlignment="1" borderId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="75" applyFont="1" applyAlignment="1" borderId="43" applyBorder="1">
+    <xf xfId="0" fontId="75" applyFont="1" applyAlignment="1" borderId="4" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="76" applyFont="1" applyAlignment="1" borderId="44" applyBorder="1">
+    <xf xfId="0" fontId="76" applyFont="1" applyAlignment="1" borderId="45" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="77" applyFont="1" applyAlignment="1" borderId="2" applyBorder="1">
+    <xf xfId="0" fontId="77" applyFont="1" applyAlignment="1" borderId="46" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="78" applyFont="1" applyAlignment="1" borderId="4" applyBorder="1">
+    <xf xfId="0" fontId="78" applyFont="1" applyAlignment="1" borderId="47" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="79" applyFont="1" applyAlignment="1" borderId="45" applyBorder="1">
+    <xf xfId="0" fontId="79" applyFont="1" applyAlignment="1" borderId="48" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="80" applyFont="1" applyAlignment="1" borderId="46" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" fontId="81" applyFont="1" applyAlignment="1" borderId="47" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" fontId="82" applyFont="1" applyAlignment="1" borderId="48" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" fontId="83" applyFont="1" applyAlignment="1" borderId="22" applyBorder="1">
+    <xf xfId="0" fontId="80" applyFont="1" applyAlignment="1" borderId="22" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="84" applyFont="1" borderId="22" applyBorder="1">
+    <xf xfId="0" fontId="81" applyFont="1" borderId="22" applyBorder="1">
       </xf>
-    <xf xfId="0" fontId="85" applyFont="1" borderId="3" applyBorder="1">
+    <xf xfId="0" fontId="82" applyFont="1" borderId="3" applyBorder="1">
       </xf>
-    <xf xfId="0" fontId="86" applyFont="1" borderId="49" applyBorder="1">
+    <xf xfId="0" fontId="83" applyFont="1" borderId="49" applyBorder="1">
       </xf>
-    <xf xfId="0" fontId="87" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="84" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="88" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="85" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="89" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="86" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="14"/>
     </xf>
-    <xf xfId="0" fontId="90" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="87" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="91" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="88" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf xfId="0" fontId="89" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf xfId="0" fontId="90" applyFont="1">
+      </xf>
+    <xf xfId="0" fontId="91" applyFont="1">
+      </xf>
     <xf xfId="0" fontId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf xfId="0" fontId="93" applyFont="1">
-      </xf>
-    <xf xfId="0" fontId="94" applyFont="1">
-      </xf>
-    <xf xfId="0" fontId="95" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf xfId="0" fontId="96" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="93" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="97" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="94" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="98" applyFont="1">
+    <xf xfId="0" fontId="95" applyFont="1">
       </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,56 +1653,56 @@
   </sheetViews>
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="14.399999999999999" defaultColWidth="9.072544642857142"/>
   <cols>
-    <col style="98" min="1" max="1" customWidth="1" width="6"/>
-    <col style="98" min="2" max="2" customWidth="1" width="8.88671875"/>
-    <col style="98" min="3" max="3" customWidth="1" width="8.88671875"/>
-    <col style="98" min="4" max="4" customWidth="1" width="8.88671875"/>
-    <col style="98" min="5" max="5" customWidth="1" width="7.6640625"/>
-    <col style="98" min="6" max="6" customWidth="1" width="5.6640625"/>
-    <col style="98" min="7" max="7" customWidth="1" width="4.6640625"/>
-    <col style="98" min="8" max="8" customWidth="1" width="4.88671875"/>
-    <col style="98" min="9" max="9" customWidth="1" width="8.88671875"/>
-    <col style="98" min="10" max="10" customWidth="1" width="8.88671875"/>
-    <col style="98" min="11" max="11" customWidth="1" width="8.88671875"/>
-    <col style="98" min="12" max="12" customWidth="1" width="8.88671875"/>
-    <col style="98" min="13" max="13" customWidth="1" width="6.33203125"/>
-    <col style="98" min="14" max="14" customWidth="1" width="8.88671875"/>
-    <col style="98" min="15" max="15" customWidth="1" width="8.88671875"/>
-    <col style="98" min="16" max="16" customWidth="1" width="8.88671875"/>
-    <col style="98" min="17" max="17" customWidth="1" width="8.88671875"/>
-    <col style="98" min="18" max="18" customWidth="1" width="8.88671875"/>
-    <col style="98" min="19" max="19" customWidth="1" width="8.88671875"/>
-    <col style="98" min="20" max="20" customWidth="1" width="8.88671875"/>
-    <col style="98" min="21" max="21" customWidth="1" width="8.88671875"/>
-    <col style="98" min="22" max="22" customWidth="1" width="8.88671875"/>
-    <col style="98" min="23" max="23" customWidth="1" width="8.88671875"/>
-    <col style="98" min="24" max="24" customWidth="1" width="8.88671875"/>
-    <col style="98" min="25" max="25" customWidth="1" width="8.88671875"/>
-    <col style="98" min="26" max="26" customWidth="1" width="8.88671875"/>
-    <col style="98" min="27" max="27" customWidth="1" width="8.88671875"/>
-    <col style="98" min="28" max="28" customWidth="1" width="8.88671875"/>
-    <col style="98" min="29" max="29" customWidth="1" width="8.88671875"/>
-    <col style="98" min="30" max="30" customWidth="1" width="8.88671875"/>
-    <col style="98" min="31" max="31" customWidth="1" width="8.88671875"/>
-    <col style="98" min="32" max="32" customWidth="1" width="8.88671875"/>
-    <col style="98" min="33" max="33" customWidth="1" width="8.88671875"/>
-    <col style="98" min="34" max="34" customWidth="1" width="8.88671875"/>
-    <col style="98" min="35" max="35" customWidth="1" width="8.88671875"/>
-    <col style="98" min="36" max="36" customWidth="1" width="8.88671875"/>
-    <col style="98" min="37" max="37" customWidth="1" width="8.88671875"/>
-    <col style="98" min="38" max="38" customWidth="1" width="8.88671875"/>
-    <col style="98" min="39" max="39" customWidth="1" width="8.88671875"/>
-    <col style="98" min="40" max="40" customWidth="1" width="8.88671875"/>
-    <col style="98" min="41" max="41" customWidth="1" width="8.88671875"/>
-    <col style="98" min="42" max="42" customWidth="1" width="8.88671875"/>
-    <col style="98" min="43" max="43" customWidth="1" width="8.88671875"/>
-    <col style="98" min="44" max="44" customWidth="1" width="8.88671875"/>
-    <col style="98" min="45" max="45" customWidth="1" width="8.88671875"/>
-    <col style="98" min="46" max="46" customWidth="1" width="8.88671875"/>
-    <col style="98" min="47" max="47" customWidth="1" width="8.88671875"/>
-    <col style="98" min="48" max="48" customWidth="1" width="8.88671875"/>
-    <col style="98" min="49" max="49" customWidth="1" width="8.88671875"/>
-    <col style="98" min="50" max="50" customWidth="1" width="8.88671875"/>
+    <col style="95" min="1" max="1" customWidth="1" width="6"/>
+    <col style="95" min="2" max="2" customWidth="1" width="8.88671875"/>
+    <col style="95" min="3" max="3" customWidth="1" width="8.88671875"/>
+    <col style="95" min="4" max="4" customWidth="1" width="8.88671875"/>
+    <col style="95" min="5" max="5" customWidth="1" width="7.6640625"/>
+    <col style="95" min="6" max="6" customWidth="1" width="5.6640625"/>
+    <col style="95" min="7" max="7" customWidth="1" width="4.6640625"/>
+    <col style="95" min="8" max="8" customWidth="1" width="4.88671875"/>
+    <col style="95" min="9" max="9" customWidth="1" width="8.88671875"/>
+    <col style="95" min="10" max="10" customWidth="1" width="8.88671875"/>
+    <col style="95" min="11" max="11" customWidth="1" width="8.88671875"/>
+    <col style="95" min="12" max="12" customWidth="1" width="8.88671875"/>
+    <col style="95" min="13" max="13" customWidth="1" width="6.33203125"/>
+    <col style="95" min="14" max="14" customWidth="1" width="8.88671875"/>
+    <col style="95" min="15" max="15" customWidth="1" width="8.88671875"/>
+    <col style="95" min="16" max="16" customWidth="1" width="8.88671875"/>
+    <col style="95" min="17" max="17" customWidth="1" width="8.88671875"/>
+    <col style="95" min="18" max="18" customWidth="1" width="8.88671875"/>
+    <col style="95" min="19" max="19" customWidth="1" width="8.88671875"/>
+    <col style="95" min="20" max="20" customWidth="1" width="8.88671875"/>
+    <col style="95" min="21" max="21" customWidth="1" width="8.88671875"/>
+    <col style="95" min="22" max="22" customWidth="1" width="8.88671875"/>
+    <col style="95" min="23" max="23" customWidth="1" width="8.88671875"/>
+    <col style="95" min="24" max="24" customWidth="1" width="8.88671875"/>
+    <col style="95" min="25" max="25" customWidth="1" width="8.88671875"/>
+    <col style="95" min="26" max="26" customWidth="1" width="8.88671875"/>
+    <col style="95" min="27" max="27" customWidth="1" width="8.88671875"/>
+    <col style="95" min="28" max="28" customWidth="1" width="8.88671875"/>
+    <col style="95" min="29" max="29" customWidth="1" width="8.88671875"/>
+    <col style="95" min="30" max="30" customWidth="1" width="8.88671875"/>
+    <col style="95" min="31" max="31" customWidth="1" width="8.88671875"/>
+    <col style="95" min="32" max="32" customWidth="1" width="8.88671875"/>
+    <col style="95" min="33" max="33" customWidth="1" width="8.88671875"/>
+    <col style="95" min="34" max="34" customWidth="1" width="8.88671875"/>
+    <col style="95" min="35" max="35" customWidth="1" width="8.88671875"/>
+    <col style="95" min="36" max="36" customWidth="1" width="8.88671875"/>
+    <col style="95" min="37" max="37" customWidth="1" width="8.88671875"/>
+    <col style="95" min="38" max="38" customWidth="1" width="8.88671875"/>
+    <col style="95" min="39" max="39" customWidth="1" width="8.88671875"/>
+    <col style="95" min="40" max="40" customWidth="1" width="8.88671875"/>
+    <col style="95" min="41" max="41" customWidth="1" width="8.88671875"/>
+    <col style="95" min="42" max="42" customWidth="1" width="8.88671875"/>
+    <col style="95" min="43" max="43" customWidth="1" width="8.88671875"/>
+    <col style="95" min="44" max="44" customWidth="1" width="8.88671875"/>
+    <col style="95" min="45" max="45" customWidth="1" width="8.88671875"/>
+    <col style="95" min="46" max="46" customWidth="1" width="8.88671875"/>
+    <col style="95" min="47" max="47" customWidth="1" width="8.88671875"/>
+    <col style="95" min="48" max="48" customWidth="1" width="8.88671875"/>
+    <col style="95" min="49" max="49" customWidth="1" width="8.88671875"/>
+    <col style="95" min="50" max="50" customWidth="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25" ht="18" customHeight="1">
@@ -2043,22 +2031,22 @@
       <c r="AX3" s="6">
              </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25" ht="22.5" customHeight="1">
+    <row r="4" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
       <c r="A4" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="n">
-        <v>2</v>
+      <c r="C4" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="24" t="n">
         <f>(C4-E4)/E4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="n">
-        <v>1</v>
+      <c r="E4" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="26">
              </c>
@@ -2066,14 +2054,14 @@
              </c>
       <c r="H4" s="28">
              </c>
-      <c r="I4" s="29">
+      <c r="I4" s="25">
              </c>
       <c r="J4" s="24">
         <f>(I4-K4)/K4</f>
       </c>
-      <c r="K4" s="30">
-             </c>
-      <c r="L4" s="31" t="n">
+      <c r="K4" s="29">
+             </c>
+      <c r="L4" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="21" t="n">
@@ -2155,38 +2143,38 @@
              </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25" ht="22.5" customHeight="1">
-      <c r="A5" s="32">
-             </c>
-      <c r="B5" s="33" t="n">
+      <c r="A5" s="31">
+             </c>
+      <c r="B5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="n">
-        <v>3</v>
+      <c r="C5" s="33" t="n">
+        <v>8</v>
       </c>
       <c r="D5" s="24" t="n">
         <f>(C5-E5)/E5</f>
-        <v>-0.25</v>
+        <v>1</v>
       </c>
-      <c r="E5" s="35" t="n">
-        <v>4</v>
+      <c r="E5" s="34" t="s">
+        <v>15</v>
       </c>
-      <c r="F5" s="36">
-             </c>
-      <c r="G5" s="37">
-             </c>
-      <c r="H5" s="38">
-             </c>
-      <c r="I5" s="39">
+      <c r="F5" s="35">
+             </c>
+      <c r="G5" s="36">
+             </c>
+      <c r="H5" s="37">
+             </c>
+      <c r="I5" s="34">
              </c>
       <c r="J5" s="24">
         <f>(I5-K5)/K5</f>
       </c>
-      <c r="K5" s="40">
-             </c>
-      <c r="L5" s="41" t="n">
+      <c r="K5" s="38">
+             </c>
+      <c r="L5" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="31">
              </c>
       <c r="N5" s="5">
              </c>
@@ -2263,39 +2251,39 @@
       <c r="AX5" s="6">
              </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25" ht="22.5" customHeight="1">
-      <c r="A6" s="32">
-             </c>
-      <c r="B6" s="33" t="n">
+    <row r="6" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
+      <c r="A6" s="31">
+             </c>
+      <c r="B6" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="n">
-        <v>5</v>
+      <c r="C6" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="24" t="n">
         <f>(C6-E6)/E6</f>
         <v>-0.16666666666667</v>
       </c>
-      <c r="E6" s="35" t="n">
-        <v>6</v>
+      <c r="E6" s="34" t="s">
+        <v>17</v>
       </c>
-      <c r="F6" s="36">
-             </c>
-      <c r="G6" s="42">
-             </c>
-      <c r="H6" s="38">
-             </c>
-      <c r="I6" s="39">
+      <c r="F6" s="35">
+             </c>
+      <c r="G6" s="41">
+             </c>
+      <c r="H6" s="37">
+             </c>
+      <c r="I6" s="34">
              </c>
       <c r="J6" s="24">
         <f>(I6-K6)/K6</f>
       </c>
-      <c r="K6" s="40">
-             </c>
-      <c r="L6" s="41" t="n">
+      <c r="K6" s="38">
+             </c>
+      <c r="L6" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
              </c>
       <c r="N6" s="5">
              </c>
@@ -2373,36 +2361,36 @@
              </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A7" s="43">
-             </c>
-      <c r="B7" s="44" t="n">
+      <c r="A7" s="42">
+             </c>
+      <c r="B7" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
              </c>
       <c r="D7" s="24">
         <f>(C7-E7)/E7</f>
       </c>
-      <c r="E7" s="46">
-             </c>
-      <c r="F7" s="47">
-             </c>
-      <c r="G7" s="48" t="n">
+      <c r="E7" s="45">
+             </c>
+      <c r="F7" s="46">
+             </c>
+      <c r="G7" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="47">
-             </c>
-      <c r="I7" s="46">
+      <c r="H7" s="46">
+             </c>
+      <c r="I7" s="45">
              </c>
       <c r="J7" s="24">
         <f>(I7-K7)/K7</f>
       </c>
-      <c r="K7" s="49">
-             </c>
-      <c r="L7" s="50" t="n">
+      <c r="K7" s="48">
+             </c>
+      <c r="L7" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="42">
              </c>
       <c r="N7" s="5">
              </c>
@@ -2486,27 +2474,27 @@
       <c r="B8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="23">
              </c>
       <c r="D8" s="24">
         <f>(C8-E8)/E8</f>
       </c>
-      <c r="E8" s="29">
-             </c>
-      <c r="F8" s="52">
-             </c>
-      <c r="G8" s="53">
-             </c>
-      <c r="H8" s="52">
-             </c>
-      <c r="I8" s="29">
+      <c r="E8" s="25">
+             </c>
+      <c r="F8" s="50">
+             </c>
+      <c r="G8" s="51">
+             </c>
+      <c r="H8" s="50">
+             </c>
+      <c r="I8" s="25">
              </c>
       <c r="J8" s="24">
         <f>(I8-K8)/K8</f>
       </c>
-      <c r="K8" s="30">
-             </c>
-      <c r="L8" s="31" t="n">
+      <c r="K8" s="29">
+             </c>
+      <c r="L8" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="21" t="n">
@@ -2588,35 +2576,35 @@
              </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A9" s="32">
-             </c>
-      <c r="B9" s="33" t="n">
+      <c r="A9" s="31">
+             </c>
+      <c r="B9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="40">
              </c>
       <c r="D9" s="24">
         <f>(C9-E9)/E9</f>
       </c>
-      <c r="E9" s="39">
-             </c>
-      <c r="F9" s="36">
-             </c>
-      <c r="G9" s="55">
-             </c>
-      <c r="H9" s="38">
-             </c>
-      <c r="I9" s="39">
+      <c r="E9" s="34">
+             </c>
+      <c r="F9" s="35">
+             </c>
+      <c r="G9" s="52">
+             </c>
+      <c r="H9" s="37">
+             </c>
+      <c r="I9" s="34">
              </c>
       <c r="J9" s="24">
         <f>(I9-K9)/K9</f>
       </c>
-      <c r="K9" s="40">
-             </c>
-      <c r="L9" s="41" t="n">
+      <c r="K9" s="38">
+             </c>
+      <c r="L9" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
              </c>
       <c r="N9" s="5">
              </c>
@@ -2694,35 +2682,35 @@
              </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A10" s="32">
-             </c>
-      <c r="B10" s="33" t="n">
+      <c r="A10" s="31">
+             </c>
+      <c r="B10" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="40">
              </c>
       <c r="D10" s="24">
         <f>(C10-E10)/E10</f>
       </c>
-      <c r="E10" s="39">
-             </c>
-      <c r="F10" s="36">
-             </c>
-      <c r="G10" s="42">
-             </c>
-      <c r="H10" s="38">
-             </c>
-      <c r="I10" s="39">
+      <c r="E10" s="34">
+             </c>
+      <c r="F10" s="35">
+             </c>
+      <c r="G10" s="41">
+             </c>
+      <c r="H10" s="37">
+             </c>
+      <c r="I10" s="34">
              </c>
       <c r="J10" s="24">
         <f>(I10-K10)/K10</f>
       </c>
-      <c r="K10" s="40">
-             </c>
-      <c r="L10" s="41" t="n">
+      <c r="K10" s="38">
+             </c>
+      <c r="L10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="31">
              </c>
       <c r="N10" s="5">
              </c>
@@ -2800,36 +2788,36 @@
              </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A11" s="43">
-             </c>
-      <c r="B11" s="44" t="n">
+      <c r="A11" s="42">
+             </c>
+      <c r="B11" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
              </c>
       <c r="D11" s="24">
         <f>(C11-E11)/E11</f>
       </c>
-      <c r="E11" s="46">
-             </c>
-      <c r="F11" s="47">
-             </c>
-      <c r="G11" s="48" t="n">
+      <c r="E11" s="45">
+             </c>
+      <c r="F11" s="46">
+             </c>
+      <c r="G11" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="47">
-             </c>
-      <c r="I11" s="46">
+      <c r="H11" s="46">
+             </c>
+      <c r="I11" s="45">
              </c>
       <c r="J11" s="24">
         <f>(I11-K11)/K11</f>
       </c>
-      <c r="K11" s="49">
-             </c>
-      <c r="L11" s="50" t="n">
+      <c r="K11" s="48">
+             </c>
+      <c r="L11" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="42">
              </c>
       <c r="N11" s="5">
              </c>
@@ -2913,27 +2901,27 @@
       <c r="B12" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="23">
              </c>
       <c r="D12" s="24">
         <f>(C12-E12)/E12</f>
       </c>
-      <c r="E12" s="29">
-             </c>
-      <c r="F12" s="52">
-             </c>
-      <c r="G12" s="53">
-             </c>
-      <c r="H12" s="52">
-             </c>
-      <c r="I12" s="29">
+      <c r="E12" s="25">
+             </c>
+      <c r="F12" s="50">
+             </c>
+      <c r="G12" s="51">
+             </c>
+      <c r="H12" s="50">
+             </c>
+      <c r="I12" s="25">
              </c>
       <c r="J12" s="24">
         <f>(I12-K12)/K12</f>
       </c>
-      <c r="K12" s="30">
-             </c>
-      <c r="L12" s="31" t="n">
+      <c r="K12" s="29">
+             </c>
+      <c r="L12" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="21" t="n">
@@ -3015,35 +3003,35 @@
              </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A13" s="32">
-             </c>
-      <c r="B13" s="33" t="n">
+      <c r="A13" s="31">
+             </c>
+      <c r="B13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="40">
              </c>
       <c r="D13" s="24">
         <f>(C13-E13)/E13</f>
       </c>
-      <c r="E13" s="39">
-             </c>
-      <c r="F13" s="36">
-             </c>
-      <c r="G13" s="55">
-             </c>
-      <c r="H13" s="38">
-             </c>
-      <c r="I13" s="39">
+      <c r="E13" s="34">
+             </c>
+      <c r="F13" s="35">
+             </c>
+      <c r="G13" s="52">
+             </c>
+      <c r="H13" s="37">
+             </c>
+      <c r="I13" s="34">
              </c>
       <c r="J13" s="24">
         <f>(I13-K13)/K13</f>
       </c>
-      <c r="K13" s="40">
-             </c>
-      <c r="L13" s="41" t="n">
+      <c r="K13" s="38">
+             </c>
+      <c r="L13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
              </c>
       <c r="N13" s="5">
              </c>
@@ -3121,35 +3109,35 @@
              </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A14" s="32">
-             </c>
-      <c r="B14" s="33" t="n">
+      <c r="A14" s="31">
+             </c>
+      <c r="B14" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="40">
              </c>
       <c r="D14" s="24">
         <f>(C14-E14)/E14</f>
       </c>
-      <c r="E14" s="39">
-             </c>
-      <c r="F14" s="36">
-             </c>
-      <c r="G14" s="42">
-             </c>
-      <c r="H14" s="38">
-             </c>
-      <c r="I14" s="39">
+      <c r="E14" s="34">
+             </c>
+      <c r="F14" s="35">
+             </c>
+      <c r="G14" s="41">
+             </c>
+      <c r="H14" s="37">
+             </c>
+      <c r="I14" s="34">
              </c>
       <c r="J14" s="24">
         <f>(I14-K14)/K14</f>
       </c>
-      <c r="K14" s="40">
-             </c>
-      <c r="L14" s="41" t="n">
+      <c r="K14" s="38">
+             </c>
+      <c r="L14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="31">
              </c>
       <c r="N14" s="5">
              </c>
@@ -3227,36 +3215,36 @@
              </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A15" s="43">
-             </c>
-      <c r="B15" s="44" t="n">
+      <c r="A15" s="42">
+             </c>
+      <c r="B15" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
              </c>
       <c r="D15" s="24">
         <f>(C15-E15)/E15</f>
       </c>
-      <c r="E15" s="46">
-             </c>
-      <c r="F15" s="47">
-             </c>
-      <c r="G15" s="48" t="n">
+      <c r="E15" s="45">
+             </c>
+      <c r="F15" s="46">
+             </c>
+      <c r="G15" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="47">
-             </c>
-      <c r="I15" s="46">
+      <c r="H15" s="46">
+             </c>
+      <c r="I15" s="45">
              </c>
       <c r="J15" s="24">
         <f>(I15-K15)/K15</f>
       </c>
-      <c r="K15" s="49">
-             </c>
-      <c r="L15" s="50" t="n">
+      <c r="K15" s="48">
+             </c>
+      <c r="L15" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="42">
              </c>
       <c r="N15" s="5">
              </c>
@@ -3340,27 +3328,27 @@
       <c r="B16" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="23">
              </c>
       <c r="D16" s="24">
         <f>(C16-E16)/E16</f>
       </c>
-      <c r="E16" s="29">
-             </c>
-      <c r="F16" s="52">
-             </c>
-      <c r="G16" s="53">
-             </c>
-      <c r="H16" s="52">
-             </c>
-      <c r="I16" s="29">
+      <c r="E16" s="25">
+             </c>
+      <c r="F16" s="50">
+             </c>
+      <c r="G16" s="51">
+             </c>
+      <c r="H16" s="50">
+             </c>
+      <c r="I16" s="25">
              </c>
       <c r="J16" s="24">
         <f>(I16-K16)/K16</f>
       </c>
-      <c r="K16" s="30">
-             </c>
-      <c r="L16" s="31" t="n">
+      <c r="K16" s="29">
+             </c>
+      <c r="L16" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="21" t="n">
@@ -3442,35 +3430,35 @@
              </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A17" s="32">
-             </c>
-      <c r="B17" s="33" t="n">
+      <c r="A17" s="31">
+             </c>
+      <c r="B17" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="40">
              </c>
       <c r="D17" s="24">
         <f>(C17-E17)/E17</f>
       </c>
-      <c r="E17" s="39">
-             </c>
-      <c r="F17" s="36">
-             </c>
-      <c r="G17" s="55">
-             </c>
-      <c r="H17" s="38">
-             </c>
-      <c r="I17" s="39">
+      <c r="E17" s="34">
+             </c>
+      <c r="F17" s="35">
+             </c>
+      <c r="G17" s="52">
+             </c>
+      <c r="H17" s="37">
+             </c>
+      <c r="I17" s="34">
              </c>
       <c r="J17" s="24">
         <f>(I17-K17)/K17</f>
       </c>
-      <c r="K17" s="40">
-             </c>
-      <c r="L17" s="41" t="n">
+      <c r="K17" s="38">
+             </c>
+      <c r="L17" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="31">
              </c>
       <c r="N17" s="5">
              </c>
@@ -3548,35 +3536,35 @@
              </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A18" s="32">
-             </c>
-      <c r="B18" s="33" t="n">
+      <c r="A18" s="31">
+             </c>
+      <c r="B18" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="40">
              </c>
       <c r="D18" s="24">
         <f>(C18-E18)/E18</f>
       </c>
-      <c r="E18" s="39">
-             </c>
-      <c r="F18" s="36">
-             </c>
-      <c r="G18" s="42">
-             </c>
-      <c r="H18" s="38">
-             </c>
-      <c r="I18" s="39">
+      <c r="E18" s="34">
+             </c>
+      <c r="F18" s="35">
+             </c>
+      <c r="G18" s="41">
+             </c>
+      <c r="H18" s="37">
+             </c>
+      <c r="I18" s="34">
              </c>
       <c r="J18" s="24">
         <f>(I18-K18)/K18</f>
       </c>
-      <c r="K18" s="40">
-             </c>
-      <c r="L18" s="41" t="n">
+      <c r="K18" s="38">
+             </c>
+      <c r="L18" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="31">
              </c>
       <c r="N18" s="5">
              </c>
@@ -3654,36 +3642,36 @@
              </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A19" s="43">
-             </c>
-      <c r="B19" s="44" t="n">
+      <c r="A19" s="42">
+             </c>
+      <c r="B19" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
              </c>
       <c r="D19" s="24">
         <f>(C19-E19)/E19</f>
       </c>
-      <c r="E19" s="46">
-             </c>
-      <c r="F19" s="47">
-             </c>
-      <c r="G19" s="48" t="n">
+      <c r="E19" s="45">
+             </c>
+      <c r="F19" s="46">
+             </c>
+      <c r="G19" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="47">
-             </c>
-      <c r="I19" s="46">
+      <c r="H19" s="46">
+             </c>
+      <c r="I19" s="45">
              </c>
       <c r="J19" s="24">
         <f>(I19-K19)/K19</f>
       </c>
-      <c r="K19" s="49">
-             </c>
-      <c r="L19" s="50" t="n">
+      <c r="K19" s="48">
+             </c>
+      <c r="L19" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="42">
              </c>
       <c r="N19" s="5">
              </c>
@@ -3767,27 +3755,27 @@
       <c r="B20" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="23">
              </c>
       <c r="D20" s="24">
         <f>(C20-E20)/E20</f>
       </c>
-      <c r="E20" s="29">
-             </c>
-      <c r="F20" s="52">
-             </c>
-      <c r="G20" s="53">
-             </c>
-      <c r="H20" s="52">
-             </c>
-      <c r="I20" s="29">
+      <c r="E20" s="25">
+             </c>
+      <c r="F20" s="50">
+             </c>
+      <c r="G20" s="51">
+             </c>
+      <c r="H20" s="50">
+             </c>
+      <c r="I20" s="25">
              </c>
       <c r="J20" s="24">
         <f>(I20-K20)/K20</f>
       </c>
-      <c r="K20" s="30">
-             </c>
-      <c r="L20" s="31" t="n">
+      <c r="K20" s="29">
+             </c>
+      <c r="L20" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M20" s="21" t="n">
@@ -3869,35 +3857,35 @@
              </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A21" s="32">
-             </c>
-      <c r="B21" s="33" t="n">
+      <c r="A21" s="31">
+             </c>
+      <c r="B21" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="40">
              </c>
       <c r="D21" s="24">
         <f>(C21-E21)/E21</f>
       </c>
-      <c r="E21" s="39">
-             </c>
-      <c r="F21" s="36">
-             </c>
-      <c r="G21" s="55">
-             </c>
-      <c r="H21" s="38">
-             </c>
-      <c r="I21" s="39">
+      <c r="E21" s="34">
+             </c>
+      <c r="F21" s="35">
+             </c>
+      <c r="G21" s="52">
+             </c>
+      <c r="H21" s="37">
+             </c>
+      <c r="I21" s="34">
              </c>
       <c r="J21" s="24">
         <f>(I21-K21)/K21</f>
       </c>
-      <c r="K21" s="40">
-             </c>
-      <c r="L21" s="41" t="n">
+      <c r="K21" s="38">
+             </c>
+      <c r="L21" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="31">
              </c>
       <c r="N21" s="5">
              </c>
@@ -3975,35 +3963,35 @@
              </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A22" s="32">
-             </c>
-      <c r="B22" s="33" t="n">
+      <c r="A22" s="31">
+             </c>
+      <c r="B22" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="40">
              </c>
       <c r="D22" s="24">
         <f>(C22-E22)/E22</f>
       </c>
-      <c r="E22" s="39">
-             </c>
-      <c r="F22" s="36">
-             </c>
-      <c r="G22" s="42">
-             </c>
-      <c r="H22" s="38">
-             </c>
-      <c r="I22" s="39">
+      <c r="E22" s="34">
+             </c>
+      <c r="F22" s="35">
+             </c>
+      <c r="G22" s="41">
+             </c>
+      <c r="H22" s="37">
+             </c>
+      <c r="I22" s="34">
              </c>
       <c r="J22" s="24">
         <f>(I22-K22)/K22</f>
       </c>
-      <c r="K22" s="40">
-             </c>
-      <c r="L22" s="41" t="n">
+      <c r="K22" s="38">
+             </c>
+      <c r="L22" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="31">
              </c>
       <c r="N22" s="5">
              </c>
@@ -4081,36 +4069,36 @@
              </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A23" s="43">
-             </c>
-      <c r="B23" s="44" t="n">
+      <c r="A23" s="42">
+             </c>
+      <c r="B23" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="44">
              </c>
       <c r="D23" s="24">
         <f>(C23-E23)/E23</f>
       </c>
-      <c r="E23" s="46">
-             </c>
-      <c r="F23" s="47">
-             </c>
-      <c r="G23" s="48" t="n">
+      <c r="E23" s="45">
+             </c>
+      <c r="F23" s="46">
+             </c>
+      <c r="G23" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="47">
-             </c>
-      <c r="I23" s="46">
+      <c r="H23" s="46">
+             </c>
+      <c r="I23" s="45">
              </c>
       <c r="J23" s="24">
         <f>(I23-K23)/K23</f>
       </c>
-      <c r="K23" s="49">
-             </c>
-      <c r="L23" s="50" t="n">
+      <c r="K23" s="48">
+             </c>
+      <c r="L23" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="42">
              </c>
       <c r="N23" s="5">
              </c>
@@ -4194,27 +4182,27 @@
       <c r="B24" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="23">
              </c>
       <c r="D24" s="24">
         <f>(C24-E24)/E24</f>
       </c>
-      <c r="E24" s="29">
-             </c>
-      <c r="F24" s="52">
-             </c>
-      <c r="G24" s="53">
-             </c>
-      <c r="H24" s="52">
-             </c>
-      <c r="I24" s="29">
+      <c r="E24" s="25">
+             </c>
+      <c r="F24" s="50">
+             </c>
+      <c r="G24" s="51">
+             </c>
+      <c r="H24" s="50">
+             </c>
+      <c r="I24" s="25">
              </c>
       <c r="J24" s="24">
         <f>(I24-K24)/K24</f>
       </c>
-      <c r="K24" s="30">
-             </c>
-      <c r="L24" s="31" t="n">
+      <c r="K24" s="29">
+             </c>
+      <c r="L24" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M24" s="21" t="n">
@@ -4296,35 +4284,35 @@
              </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A25" s="32">
-             </c>
-      <c r="B25" s="33" t="n">
+      <c r="A25" s="31">
+             </c>
+      <c r="B25" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="40">
              </c>
       <c r="D25" s="24">
         <f>(C25-E25)/E25</f>
       </c>
-      <c r="E25" s="39">
-             </c>
-      <c r="F25" s="36">
-             </c>
-      <c r="G25" s="55">
-             </c>
-      <c r="H25" s="38">
-             </c>
-      <c r="I25" s="39">
+      <c r="E25" s="34">
+             </c>
+      <c r="F25" s="35">
+             </c>
+      <c r="G25" s="52">
+             </c>
+      <c r="H25" s="37">
+             </c>
+      <c r="I25" s="34">
              </c>
       <c r="J25" s="24">
         <f>(I25-K25)/K25</f>
       </c>
-      <c r="K25" s="40">
-             </c>
-      <c r="L25" s="41" t="n">
+      <c r="K25" s="38">
+             </c>
+      <c r="L25" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
              </c>
       <c r="N25" s="5">
              </c>
@@ -4402,35 +4390,35 @@
              </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A26" s="32">
-             </c>
-      <c r="B26" s="33" t="n">
+      <c r="A26" s="31">
+             </c>
+      <c r="B26" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="40">
              </c>
       <c r="D26" s="24">
         <f>(C26-E26)/E26</f>
       </c>
-      <c r="E26" s="39">
-             </c>
-      <c r="F26" s="36">
-             </c>
-      <c r="G26" s="42">
-             </c>
-      <c r="H26" s="38">
-             </c>
-      <c r="I26" s="39">
+      <c r="E26" s="34">
+             </c>
+      <c r="F26" s="35">
+             </c>
+      <c r="G26" s="41">
+             </c>
+      <c r="H26" s="37">
+             </c>
+      <c r="I26" s="34">
              </c>
       <c r="J26" s="24">
         <f>(I26-K26)/K26</f>
       </c>
-      <c r="K26" s="40">
-             </c>
-      <c r="L26" s="41" t="n">
+      <c r="K26" s="38">
+             </c>
+      <c r="L26" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="31">
              </c>
       <c r="N26" s="5">
              </c>
@@ -4508,36 +4496,36 @@
              </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A27" s="43">
-             </c>
-      <c r="B27" s="44" t="n">
+      <c r="A27" s="42">
+             </c>
+      <c r="B27" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="44">
              </c>
       <c r="D27" s="24">
         <f>(C27-E27)/E27</f>
       </c>
-      <c r="E27" s="46">
-             </c>
-      <c r="F27" s="47">
-             </c>
-      <c r="G27" s="48" t="n">
+      <c r="E27" s="45">
+             </c>
+      <c r="F27" s="46">
+             </c>
+      <c r="G27" s="47" t="n">
         <v>6</v>
       </c>
-      <c r="H27" s="47">
-             </c>
-      <c r="I27" s="46">
+      <c r="H27" s="46">
+             </c>
+      <c r="I27" s="45">
              </c>
       <c r="J27" s="24">
         <f>(I27-K27)/K27</f>
       </c>
-      <c r="K27" s="49">
-             </c>
-      <c r="L27" s="50" t="n">
+      <c r="K27" s="48">
+             </c>
+      <c r="L27" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="42">
              </c>
       <c r="N27" s="5">
              </c>
@@ -4621,27 +4609,27 @@
       <c r="B28" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="23">
              </c>
       <c r="D28" s="24">
         <f>(C28-E28)/E28</f>
       </c>
-      <c r="E28" s="29">
-             </c>
-      <c r="F28" s="52">
-             </c>
-      <c r="G28" s="53">
-             </c>
-      <c r="H28" s="52">
-             </c>
-      <c r="I28" s="29">
+      <c r="E28" s="25">
+             </c>
+      <c r="F28" s="50">
+             </c>
+      <c r="G28" s="51">
+             </c>
+      <c r="H28" s="50">
+             </c>
+      <c r="I28" s="25">
              </c>
       <c r="J28" s="24">
         <f>(I28-K28)/K28</f>
       </c>
-      <c r="K28" s="30">
-             </c>
-      <c r="L28" s="31" t="n">
+      <c r="K28" s="29">
+             </c>
+      <c r="L28" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M28" s="21" t="n">
@@ -4723,35 +4711,35 @@
              </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A29" s="32">
-             </c>
-      <c r="B29" s="33" t="n">
+      <c r="A29" s="31">
+             </c>
+      <c r="B29" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="40">
              </c>
       <c r="D29" s="24">
         <f>(C29-E29)/E29</f>
       </c>
-      <c r="E29" s="39">
-             </c>
-      <c r="F29" s="36">
-             </c>
-      <c r="G29" s="55">
-             </c>
-      <c r="H29" s="38">
-             </c>
-      <c r="I29" s="39">
+      <c r="E29" s="34">
+             </c>
+      <c r="F29" s="35">
+             </c>
+      <c r="G29" s="52">
+             </c>
+      <c r="H29" s="37">
+             </c>
+      <c r="I29" s="34">
              </c>
       <c r="J29" s="24">
         <f>(I29-K29)/K29</f>
       </c>
-      <c r="K29" s="40">
-             </c>
-      <c r="L29" s="41" t="n">
+      <c r="K29" s="38">
+             </c>
+      <c r="L29" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="31">
              </c>
       <c r="N29" s="5">
              </c>
@@ -4829,35 +4817,35 @@
              </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A30" s="32">
-             </c>
-      <c r="B30" s="33" t="n">
+      <c r="A30" s="31">
+             </c>
+      <c r="B30" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="40">
              </c>
       <c r="D30" s="24">
         <f>(C30-E30)/E30</f>
       </c>
-      <c r="E30" s="39">
-             </c>
-      <c r="F30" s="36">
-             </c>
-      <c r="G30" s="42">
-             </c>
-      <c r="H30" s="38">
-             </c>
-      <c r="I30" s="39">
+      <c r="E30" s="34">
+             </c>
+      <c r="F30" s="35">
+             </c>
+      <c r="G30" s="41">
+             </c>
+      <c r="H30" s="37">
+             </c>
+      <c r="I30" s="34">
              </c>
       <c r="J30" s="24">
         <f>(I30-K30)/K30</f>
       </c>
-      <c r="K30" s="40">
-             </c>
-      <c r="L30" s="41" t="n">
+      <c r="K30" s="38">
+             </c>
+      <c r="L30" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="31">
              </c>
       <c r="N30" s="5">
              </c>
@@ -4935,36 +4923,36 @@
              </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A31" s="43">
-             </c>
-      <c r="B31" s="44" t="n">
+      <c r="A31" s="42">
+             </c>
+      <c r="B31" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="44">
              </c>
       <c r="D31" s="24">
         <f>(C31-E31)/E31</f>
       </c>
-      <c r="E31" s="46">
-             </c>
-      <c r="F31" s="47">
-             </c>
-      <c r="G31" s="48" t="n">
+      <c r="E31" s="45">
+             </c>
+      <c r="F31" s="46">
+             </c>
+      <c r="G31" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="H31" s="47">
-             </c>
-      <c r="I31" s="46">
+      <c r="H31" s="46">
+             </c>
+      <c r="I31" s="45">
              </c>
       <c r="J31" s="24">
         <f>(I31-K31)/K31</f>
       </c>
-      <c r="K31" s="49">
-             </c>
-      <c r="L31" s="50" t="n">
+      <c r="K31" s="48">
+             </c>
+      <c r="L31" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="42">
              </c>
       <c r="N31" s="5">
              </c>
@@ -5048,27 +5036,27 @@
       <c r="B32" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="51">
-             </c>
-      <c r="D32" s="29">
+      <c r="C32" s="23">
+             </c>
+      <c r="D32" s="25">
         <f>(C32-E32)/E32</f>
       </c>
-      <c r="E32" s="29">
-             </c>
-      <c r="F32" s="52">
-             </c>
-      <c r="G32" s="53">
-             </c>
-      <c r="H32" s="52">
-             </c>
-      <c r="I32" s="56">
-             </c>
-      <c r="J32" s="56">
+      <c r="E32" s="25">
+             </c>
+      <c r="F32" s="50">
+             </c>
+      <c r="G32" s="51">
+             </c>
+      <c r="H32" s="50">
+             </c>
+      <c r="I32" s="53">
+             </c>
+      <c r="J32" s="53">
         <f>(I32-K32)/K32</f>
       </c>
-      <c r="K32" s="57">
-             </c>
-      <c r="L32" s="58" t="n">
+      <c r="K32" s="54">
+             </c>
+      <c r="L32" s="55" t="n">
         <v>1</v>
       </c>
       <c r="M32" s="21" t="n">
@@ -5150,35 +5138,35 @@
              </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A33" s="32">
-             </c>
-      <c r="B33" s="59" t="n">
+      <c r="A33" s="31">
+             </c>
+      <c r="B33" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="60">
-             </c>
-      <c r="D33" s="61">
+      <c r="C33" s="57">
+             </c>
+      <c r="D33" s="58">
         <f>(E33-C33)/E33</f>
       </c>
-      <c r="E33" s="61">
-             </c>
-      <c r="F33" s="36">
-             </c>
-      <c r="G33" s="55">
-             </c>
-      <c r="H33" s="62">
-             </c>
-      <c r="I33" s="63">
-             </c>
-      <c r="J33" s="63">
+      <c r="E33" s="58">
+             </c>
+      <c r="F33" s="35">
+             </c>
+      <c r="G33" s="52">
+             </c>
+      <c r="H33" s="59">
+             </c>
+      <c r="I33" s="60">
+             </c>
+      <c r="J33" s="60">
         <f>(K33-I33)/K33</f>
       </c>
-      <c r="K33" s="63">
-             </c>
-      <c r="L33" s="64" t="n">
+      <c r="K33" s="60">
+             </c>
+      <c r="L33" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="M33" s="65">
+      <c r="M33" s="62">
              </c>
       <c r="N33" s="5">
              </c>
@@ -5256,31 +5244,31 @@
              </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25" hidden="1">
-      <c r="A34" s="32">
-             </c>
-      <c r="B34" s="66">
-             </c>
-      <c r="C34" s="67">
-             </c>
-      <c r="D34" s="68">
-             </c>
-      <c r="E34" s="68">
-             </c>
-      <c r="F34" s="36">
-             </c>
-      <c r="G34" s="37">
-             </c>
-      <c r="H34" s="62">
-             </c>
-      <c r="I34" s="63">
-             </c>
-      <c r="J34" s="63">
-             </c>
-      <c r="K34" s="63">
-             </c>
-      <c r="L34" s="64">
-             </c>
-      <c r="M34" s="65">
+      <c r="A34" s="31">
+             </c>
+      <c r="B34" s="63">
+             </c>
+      <c r="C34" s="64">
+             </c>
+      <c r="D34" s="65">
+             </c>
+      <c r="E34" s="65">
+             </c>
+      <c r="F34" s="35">
+             </c>
+      <c r="G34" s="36">
+             </c>
+      <c r="H34" s="59">
+             </c>
+      <c r="I34" s="60">
+             </c>
+      <c r="J34" s="60">
+             </c>
+      <c r="K34" s="60">
+             </c>
+      <c r="L34" s="61">
+             </c>
+      <c r="M34" s="62">
              </c>
       <c r="N34" s="5">
              </c>
@@ -5358,31 +5346,31 @@
              </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25" hidden="1">
-      <c r="A35" s="32">
-             </c>
-      <c r="B35" s="66">
-             </c>
-      <c r="C35" s="67">
-             </c>
-      <c r="D35" s="68">
-             </c>
-      <c r="E35" s="68">
-             </c>
-      <c r="F35" s="36">
-             </c>
-      <c r="G35" s="37">
-             </c>
-      <c r="H35" s="62">
-             </c>
-      <c r="I35" s="63">
-             </c>
-      <c r="J35" s="63">
-             </c>
-      <c r="K35" s="63">
-             </c>
-      <c r="L35" s="64">
-             </c>
-      <c r="M35" s="65">
+      <c r="A35" s="31">
+             </c>
+      <c r="B35" s="63">
+             </c>
+      <c r="C35" s="64">
+             </c>
+      <c r="D35" s="65">
+             </c>
+      <c r="E35" s="65">
+             </c>
+      <c r="F35" s="35">
+             </c>
+      <c r="G35" s="36">
+             </c>
+      <c r="H35" s="59">
+             </c>
+      <c r="I35" s="60">
+             </c>
+      <c r="J35" s="60">
+             </c>
+      <c r="K35" s="60">
+             </c>
+      <c r="L35" s="61">
+             </c>
+      <c r="M35" s="62">
              </c>
       <c r="N35" s="5">
              </c>
@@ -5460,31 +5448,31 @@
              </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25" hidden="1">
-      <c r="A36" s="32">
-             </c>
-      <c r="B36" s="66">
-             </c>
-      <c r="C36" s="67">
-             </c>
-      <c r="D36" s="68">
-             </c>
-      <c r="E36" s="68">
-             </c>
-      <c r="F36" s="36">
-             </c>
-      <c r="G36" s="37">
-             </c>
-      <c r="H36" s="62">
-             </c>
-      <c r="I36" s="63">
-             </c>
-      <c r="J36" s="63">
-             </c>
-      <c r="K36" s="63">
-             </c>
-      <c r="L36" s="64">
-             </c>
-      <c r="M36" s="65">
+      <c r="A36" s="31">
+             </c>
+      <c r="B36" s="63">
+             </c>
+      <c r="C36" s="64">
+             </c>
+      <c r="D36" s="65">
+             </c>
+      <c r="E36" s="65">
+             </c>
+      <c r="F36" s="35">
+             </c>
+      <c r="G36" s="36">
+             </c>
+      <c r="H36" s="59">
+             </c>
+      <c r="I36" s="60">
+             </c>
+      <c r="J36" s="60">
+             </c>
+      <c r="K36" s="60">
+             </c>
+      <c r="L36" s="61">
+             </c>
+      <c r="M36" s="62">
              </c>
       <c r="N36" s="5">
              </c>
@@ -5562,31 +5550,31 @@
              </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25" hidden="1">
-      <c r="A37" s="32">
-             </c>
-      <c r="B37" s="66">
-             </c>
-      <c r="C37" s="67">
-             </c>
-      <c r="D37" s="68">
-             </c>
-      <c r="E37" s="68">
-             </c>
-      <c r="F37" s="36">
-             </c>
-      <c r="G37" s="37">
-             </c>
-      <c r="H37" s="62">
-             </c>
-      <c r="I37" s="63">
-             </c>
-      <c r="J37" s="63">
-             </c>
-      <c r="K37" s="63">
-             </c>
-      <c r="L37" s="64">
-             </c>
-      <c r="M37" s="65">
+      <c r="A37" s="31">
+             </c>
+      <c r="B37" s="63">
+             </c>
+      <c r="C37" s="64">
+             </c>
+      <c r="D37" s="65">
+             </c>
+      <c r="E37" s="65">
+             </c>
+      <c r="F37" s="35">
+             </c>
+      <c r="G37" s="36">
+             </c>
+      <c r="H37" s="59">
+             </c>
+      <c r="I37" s="60">
+             </c>
+      <c r="J37" s="60">
+             </c>
+      <c r="K37" s="60">
+             </c>
+      <c r="L37" s="61">
+             </c>
+      <c r="M37" s="62">
              </c>
       <c r="N37" s="5">
              </c>
@@ -5664,31 +5652,31 @@
              </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25" hidden="1">
-      <c r="A38" s="32">
-             </c>
-      <c r="B38" s="69">
-             </c>
-      <c r="C38" s="70">
-             </c>
-      <c r="D38" s="71">
-             </c>
-      <c r="E38" s="71">
-             </c>
-      <c r="F38" s="36">
-             </c>
-      <c r="G38" s="37">
-             </c>
-      <c r="H38" s="62">
-             </c>
-      <c r="I38" s="63">
-             </c>
-      <c r="J38" s="63">
-             </c>
-      <c r="K38" s="63">
-             </c>
-      <c r="L38" s="64">
-             </c>
-      <c r="M38" s="65">
+      <c r="A38" s="31">
+             </c>
+      <c r="B38" s="66">
+             </c>
+      <c r="C38" s="67">
+             </c>
+      <c r="D38" s="68">
+             </c>
+      <c r="E38" s="68">
+             </c>
+      <c r="F38" s="35">
+             </c>
+      <c r="G38" s="36">
+             </c>
+      <c r="H38" s="59">
+             </c>
+      <c r="I38" s="60">
+             </c>
+      <c r="J38" s="60">
+             </c>
+      <c r="K38" s="60">
+             </c>
+      <c r="L38" s="61">
+             </c>
+      <c r="M38" s="62">
              </c>
       <c r="N38" s="5">
              </c>
@@ -5766,35 +5754,35 @@
              </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A39" s="32">
-             </c>
-      <c r="B39" s="33" t="n">
+      <c r="A39" s="31">
+             </c>
+      <c r="B39" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="54">
-             </c>
-      <c r="D39" s="39">
+      <c r="C39" s="40">
+             </c>
+      <c r="D39" s="34">
         <f>(E39-C39)/E39</f>
       </c>
-      <c r="E39" s="39">
-             </c>
-      <c r="F39" s="36">
-             </c>
-      <c r="G39" s="37">
-             </c>
-      <c r="H39" s="62">
-             </c>
-      <c r="I39" s="63">
-             </c>
-      <c r="J39" s="63">
+      <c r="E39" s="34">
+             </c>
+      <c r="F39" s="35">
+             </c>
+      <c r="G39" s="36">
+             </c>
+      <c r="H39" s="59">
+             </c>
+      <c r="I39" s="60">
+             </c>
+      <c r="J39" s="60">
         <f>(K39-I39)/K39</f>
       </c>
-      <c r="K39" s="63">
-             </c>
-      <c r="L39" s="64" t="n">
+      <c r="K39" s="60">
+             </c>
+      <c r="L39" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="M39" s="65">
+      <c r="M39" s="62">
              </c>
       <c r="N39" s="5">
              </c>
@@ -5872,35 +5860,35 @@
              </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25" ht="66" customHeight="1">
-      <c r="A40" s="53">
-             </c>
-      <c r="B40" s="33" t="n">
+      <c r="A40" s="51">
+             </c>
+      <c r="B40" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="54">
-             </c>
-      <c r="D40" s="39">
+      <c r="C40" s="40">
+             </c>
+      <c r="D40" s="34">
         <f>(E40-C40)/E40</f>
       </c>
-      <c r="E40" s="39">
-             </c>
-      <c r="F40" s="72">
-             </c>
-      <c r="G40" s="42">
-             </c>
-      <c r="H40" s="73">
-             </c>
-      <c r="I40" s="74">
-             </c>
-      <c r="J40" s="63">
+      <c r="E40" s="34">
+             </c>
+      <c r="F40" s="69">
+             </c>
+      <c r="G40" s="41">
+             </c>
+      <c r="H40" s="70">
+             </c>
+      <c r="I40" s="71">
+             </c>
+      <c r="J40" s="60">
         <f>(K40-I40)/K40</f>
       </c>
-      <c r="K40" s="75">
-             </c>
-      <c r="L40" s="76" t="n">
+      <c r="K40" s="72">
+             </c>
+      <c r="L40" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="M40" s="53">
+      <c r="M40" s="51">
              </c>
       <c r="N40" s="5">
              </c>
@@ -5978,36 +5966,36 @@
              </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A41" s="48" t="n">
+      <c r="A41" s="47" t="n">
         <v>9</v>
       </c>
-      <c r="B41" s="33" t="n">
+      <c r="B41" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="54">
-             </c>
-      <c r="D41" s="39">
+      <c r="C41" s="40">
+             </c>
+      <c r="D41" s="34">
         <f>(E41-C41)/E41</f>
       </c>
-      <c r="E41" s="39">
-             </c>
-      <c r="F41" s="77">
-             </c>
-      <c r="G41" s="55">
-             </c>
-      <c r="H41" s="78">
-             </c>
-      <c r="I41" s="79">
-             </c>
-      <c r="J41" s="63">
+      <c r="E41" s="34">
+             </c>
+      <c r="F41" s="74">
+             </c>
+      <c r="G41" s="52">
+             </c>
+      <c r="H41" s="75">
+             </c>
+      <c r="I41" s="76">
+             </c>
+      <c r="J41" s="60">
         <f>(K41-I41)/K41</f>
       </c>
-      <c r="K41" s="80">
-             </c>
-      <c r="L41" s="41" t="n">
+      <c r="K41" s="77">
+             </c>
+      <c r="L41" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="M41" s="48" t="n">
+      <c r="M41" s="47" t="n">
         <v>9</v>
       </c>
       <c r="N41" s="5">
@@ -6086,35 +6074,35 @@
              </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A42" s="32">
-             </c>
-      <c r="B42" s="33" t="n">
+      <c r="A42" s="31">
+             </c>
+      <c r="B42" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C42" s="54">
-             </c>
-      <c r="D42" s="39">
+      <c r="C42" s="40">
+             </c>
+      <c r="D42" s="34">
         <f>(E42-C42)/E42</f>
       </c>
-      <c r="E42" s="39">
-             </c>
-      <c r="F42" s="36">
-             </c>
-      <c r="G42" s="37">
-             </c>
-      <c r="H42" s="38">
-             </c>
-      <c r="I42" s="79">
-             </c>
-      <c r="J42" s="63">
+      <c r="E42" s="34">
+             </c>
+      <c r="F42" s="35">
+             </c>
+      <c r="G42" s="36">
+             </c>
+      <c r="H42" s="37">
+             </c>
+      <c r="I42" s="76">
+             </c>
+      <c r="J42" s="60">
         <f>(K42-I42)/K42</f>
       </c>
-      <c r="K42" s="80">
-             </c>
-      <c r="L42" s="41" t="n">
+      <c r="K42" s="77">
+             </c>
+      <c r="L42" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="31">
              </c>
       <c r="N42" s="5">
              </c>
@@ -6192,35 +6180,35 @@
              </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A43" s="32">
-             </c>
-      <c r="B43" s="33" t="n">
+      <c r="A43" s="31">
+             </c>
+      <c r="B43" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C43" s="54">
-             </c>
-      <c r="D43" s="39">
+      <c r="C43" s="40">
+             </c>
+      <c r="D43" s="34">
         <f>(E43-C43)/E43</f>
       </c>
-      <c r="E43" s="39">
-             </c>
-      <c r="F43" s="36">
-             </c>
-      <c r="G43" s="37">
-             </c>
-      <c r="H43" s="38">
-             </c>
-      <c r="I43" s="79">
-             </c>
-      <c r="J43" s="63">
+      <c r="E43" s="34">
+             </c>
+      <c r="F43" s="35">
+             </c>
+      <c r="G43" s="36">
+             </c>
+      <c r="H43" s="37">
+             </c>
+      <c r="I43" s="76">
+             </c>
+      <c r="J43" s="60">
         <f>(K43-I43)/K43</f>
       </c>
-      <c r="K43" s="80">
-             </c>
-      <c r="L43" s="41" t="n">
+      <c r="K43" s="77">
+             </c>
+      <c r="L43" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="31">
              </c>
       <c r="N43" s="5">
              </c>
@@ -6298,35 +6286,35 @@
              </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A44" s="43">
-             </c>
-      <c r="B44" s="44" t="n">
+      <c r="A44" s="42">
+             </c>
+      <c r="B44" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="C44" s="45">
-             </c>
-      <c r="D44" s="39">
+      <c r="C44" s="44">
+             </c>
+      <c r="D44" s="34">
         <f>(E44-C44)/E44</f>
       </c>
-      <c r="E44" s="46">
-             </c>
-      <c r="F44" s="72">
-             </c>
-      <c r="G44" s="42">
-             </c>
-      <c r="H44" s="73">
-             </c>
-      <c r="I44" s="81">
-             </c>
-      <c r="J44" s="63">
+      <c r="E44" s="45">
+             </c>
+      <c r="F44" s="69">
+             </c>
+      <c r="G44" s="41">
+             </c>
+      <c r="H44" s="70">
+             </c>
+      <c r="I44" s="78">
+             </c>
+      <c r="J44" s="60">
         <f>(K44-I44)/K44</f>
       </c>
-      <c r="K44" s="82">
-             </c>
-      <c r="L44" s="50" t="n">
+      <c r="K44" s="79">
+             </c>
+      <c r="L44" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M44" s="43">
+      <c r="M44" s="42">
              </c>
       <c r="N44" s="5">
              </c>
@@ -6404,32 +6392,32 @@
              </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25" ht="16.2" customHeight="1">
-      <c r="A45" s="83" t="s">
-        <v>13</v>
+      <c r="A45" s="80" t="s">
+        <v>18</v>
       </c>
-      <c r="B45" s="84">
-             </c>
-      <c r="C45" s="84">
-             </c>
-      <c r="D45" s="85">
-             </c>
-      <c r="E45" s="84">
-             </c>
-      <c r="F45" s="85">
-             </c>
-      <c r="G45" s="85">
-             </c>
-      <c r="H45" s="85">
-             </c>
-      <c r="I45" s="84">
-             </c>
-      <c r="J45" s="86">
-             </c>
-      <c r="K45" s="84">
-             </c>
-      <c r="L45" s="84">
-             </c>
-      <c r="M45" s="84">
+      <c r="B45" s="81">
+             </c>
+      <c r="C45" s="81">
+             </c>
+      <c r="D45" s="82">
+             </c>
+      <c r="E45" s="81">
+             </c>
+      <c r="F45" s="82">
+             </c>
+      <c r="G45" s="82">
+             </c>
+      <c r="H45" s="82">
+             </c>
+      <c r="I45" s="81">
+             </c>
+      <c r="J45" s="83">
+             </c>
+      <c r="K45" s="81">
+             </c>
+      <c r="L45" s="81">
+             </c>
+      <c r="M45" s="81">
              </c>
       <c r="N45" s="6">
              </c>
@@ -6509,14 +6497,14 @@
     <row r="46" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
       <c r="A46" s="6">
              </c>
-      <c r="B46" s="87" t="s">
-        <v>14</v>
+      <c r="B46" s="84" t="s">
+        <v>19</v>
       </c>
-      <c r="C46" s="87" t="s">
-        <v>15</v>
+      <c r="C46" s="84" t="s">
+        <v>20</v>
       </c>
-      <c r="D46" s="88" t="s">
-        <v>16</v>
+      <c r="D46" s="85" t="s">
+        <v>21</v>
       </c>
       <c r="E46" s="6">
              </c>
@@ -6612,16 +6600,16 @@
              </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
-      <c r="A47" s="89" t="s">
-        <v>17</v>
+      <c r="A47" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="B47" s="6">
              </c>
-      <c r="C47" s="90" t="s">
-        <v>18</v>
+      <c r="C47" s="87" t="s">
+        <v>23</v>
       </c>
-      <c r="D47" s="91" t="s">
-        <v>19</v>
+      <c r="D47" s="88" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="6">
              </c>
@@ -6717,15 +6705,15 @@
              </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
-      <c r="A48" s="92">
+      <c r="A48" s="89">
              </c>
       <c r="B48" s="6">
              </c>
-      <c r="C48" s="93" t="s">
-        <v>20</v>
+      <c r="C48" s="90" t="s">
+        <v>25</v>
       </c>
-      <c r="D48" s="94" t="s">
-        <v>21</v>
+      <c r="D48" s="91" t="s">
+        <v>26</v>
       </c>
       <c r="E48" s="6">
              </c>
@@ -6821,15 +6809,15 @@
              </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
-      <c r="A49" s="92">
-             </c>
-      <c r="B49" s="95">
-             </c>
-      <c r="C49" s="93" t="s">
-        <v>22</v>
+      <c r="A49" s="89">
+             </c>
+      <c r="B49" s="92">
+             </c>
+      <c r="C49" s="90" t="s">
+        <v>27</v>
       </c>
-      <c r="D49" s="94" t="s">
-        <v>23</v>
+      <c r="D49" s="91" t="s">
+        <v>28</v>
       </c>
       <c r="E49" s="6">
              </c>
@@ -6925,8 +6913,8 @@
              </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
-      <c r="A50" s="92" t="s">
-        <v>24</v>
+      <c r="A50" s="89" t="s">
+        <v>29</v>
       </c>
       <c r="B50" s="6">
              </c>
@@ -7028,7 +7016,7 @@
              </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="95">
+      <c r="A51" s="92">
              </c>
       <c r="B51" s="6">
              </c>
@@ -7130,27 +7118,27 @@
              </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25" ht="46.2" customHeight="1">
-      <c r="A52" s="96" t="s">
-        <v>25</v>
+      <c r="A52" s="93" t="s">
+        <v>30</v>
       </c>
-      <c r="B52" s="96">
-             </c>
-      <c r="C52" s="96">
-             </c>
-      <c r="D52" s="96">
+      <c r="B52" s="93">
+             </c>
+      <c r="C52" s="93">
+             </c>
+      <c r="D52" s="93">
              </c>
       <c r="E52" s="6">
              </c>
-      <c r="F52" s="96" t="s">
-        <v>26</v>
+      <c r="F52" s="93" t="s">
+        <v>31</v>
       </c>
-      <c r="G52" s="96">
-             </c>
-      <c r="H52" s="96">
-             </c>
-      <c r="I52" s="96">
-             </c>
-      <c r="J52" s="96">
+      <c r="G52" s="93">
+             </c>
+      <c r="H52" s="93">
+             </c>
+      <c r="I52" s="93">
+             </c>
+      <c r="J52" s="93">
              </c>
       <c r="K52" s="6">
              </c>
@@ -7234,11 +7222,11 @@
              </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
-      <c r="A53" s="97" t="s">
-        <v>27</v>
+      <c r="A53" s="94" t="s">
+        <v>32</v>
       </c>
-      <c r="B53" s="97" t="s">
-        <v>27</v>
+      <c r="B53" s="94" t="s">
+        <v>32</v>
       </c>
       <c r="C53" s="6">
              </c>
@@ -7338,7 +7326,7 @@
              </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
-      <c r="A54" s="95">
+      <c r="A54" s="92">
              </c>
       <c r="B54" s="6">
              </c>

--- a/WebApplication1/Temp/02_bloksaplamaları_formulllllllllll_2020-03-31.xlsx
+++ b/WebApplication1/Temp/02_bloksaplamaları_formulllllllllll_2020-03-31.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t xml:space="preserve">Engine</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -217,7 +220,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0">
   </numFmts>
-  <fonts count="96" x14ac:knownFonts="1">
+  <fonts count="95" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,12 +464,6 @@
     </font>
     <font>
       <sz val="9.99999999999975"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8.00000000000025"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -1356,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xfId="0" fontId="1" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1452,7 +1449,7 @@
     <xf xfId="0" fontId="32" applyFont="1" applyAlignment="1" borderId="24" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="33" applyFont="1" numFmtId="1" applyNumberFormat="1" applyAlignment="1" borderId="25" applyBorder="1">
+    <xf xfId="0" fontId="33" applyFont="1" applyAlignment="1" borderId="25" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf xfId="0" fontId="34" applyFont="1" applyAlignment="1" borderId="26" applyBorder="1">
@@ -1473,167 +1470,164 @@
     <xf xfId="0" fontId="39" applyFont="1" applyAlignment="1" borderId="25" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="40" applyFont="1" applyAlignment="1" borderId="25" applyBorder="1">
+    <xf xfId="0" fontId="40" applyFont="1" applyAlignment="1" borderId="8" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="41" applyFont="1" applyAlignment="1" borderId="8" applyBorder="1">
+    <xf xfId="0" fontId="41" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="42" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
+    <xf xfId="0" fontId="42" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="43" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
+    <xf xfId="0" fontId="43" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="44" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
+    <xf xfId="0" fontId="44" applyFont="1" applyAlignment="1" borderId="12" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="45" applyFont="1" applyAlignment="1" borderId="12" applyBorder="1">
+    <xf xfId="0" fontId="45" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="46" applyFont="1" applyAlignment="1" borderId="11" applyBorder="1">
+    <xf xfId="0" fontId="46" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="47" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
+    <xf xfId="0" fontId="47" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="48" applyFont="1" applyAlignment="1" borderId="27" applyBorder="1">
+    <xf xfId="0" fontId="48" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="49" applyFont="1" applyAlignment="1" borderId="28" applyBorder="1">
+    <xf xfId="0" fontId="49" applyFont="1" applyAlignment="1" borderId="16" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="50" applyFont="1" applyAlignment="1" borderId="16" applyBorder="1">
+    <xf xfId="0" fontId="50" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="51" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
+    <xf xfId="0" fontId="51" applyFont="1" applyAlignment="1" borderId="3" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="52" applyFont="1" applyAlignment="1" borderId="3" applyBorder="1">
+    <xf xfId="0" fontId="52" applyFont="1" applyAlignment="1" borderId="30" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="53" applyFont="1" applyAlignment="1" borderId="30" applyBorder="1">
+    <xf xfId="0" fontId="53" applyFont="1" applyAlignment="1" borderId="31" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="54" applyFont="1" applyAlignment="1" borderId="31" applyBorder="1">
+    <xf xfId="0" fontId="54" applyFont="1" applyAlignment="1" borderId="32" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="55" applyFont="1" applyAlignment="1" borderId="32" applyBorder="1">
+    <xf xfId="0" fontId="55" applyFont="1" applyAlignment="1" borderId="33" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="56" applyFont="1" applyAlignment="1" borderId="33" applyBorder="1">
+    <xf xfId="0" fontId="56" applyFont="1" applyAlignment="1" borderId="34" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="57" applyFont="1" applyAlignment="1" borderId="34" applyBorder="1">
+    <xf xfId="0" fontId="57" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="58" applyFont="1" applyAlignment="1" borderId="1" applyBorder="1">
+    <xf xfId="0" fontId="58" applyFont="1" applyAlignment="1" borderId="35" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="59" applyFont="1" applyAlignment="1" borderId="35" applyBorder="1">
+    <xf xfId="0" fontId="59" applyFont="1" applyAlignment="1" borderId="36" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf xfId="0" fontId="60" applyFont="1" applyAlignment="1" borderId="36" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="61" applyFont="1" applyAlignment="1" borderId="36" applyBorder="1">
+    <xf xfId="0" fontId="61" applyFont="1" applyAlignment="1" borderId="37" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="62" applyFont="1" applyAlignment="1" borderId="37" applyBorder="1">
+    <xf xfId="0" fontId="62" applyFont="1" applyAlignment="1" borderId="38" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="63" applyFont="1" applyAlignment="1" borderId="38" applyBorder="1">
+    <xf xfId="0" fontId="63" applyFont="1" applyAlignment="1" borderId="39" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="64" applyFont="1" applyAlignment="1" borderId="39" applyBorder="1">
+    <xf xfId="0" fontId="64" applyFont="1" applyAlignment="1" borderId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="65" applyFont="1" applyAlignment="1" borderId="6" applyBorder="1">
+    <xf xfId="0" fontId="65" applyFont="1" applyAlignment="1" borderId="40" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="66" applyFont="1" applyAlignment="1" borderId="40" applyBorder="1">
+    <xf xfId="0" fontId="66" applyFont="1" applyAlignment="1" borderId="41" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="67" applyFont="1" applyAlignment="1" borderId="41" applyBorder="1">
+    <xf xfId="0" fontId="67" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="68" applyFont="1" applyAlignment="1" borderId="29" applyBorder="1">
+    <xf xfId="0" fontId="68" applyFont="1" applyAlignment="1" borderId="7" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="69" applyFont="1" applyAlignment="1" borderId="7" applyBorder="1">
+    <xf xfId="0" fontId="69" applyFont="1" applyAlignment="1" borderId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="70" applyFont="1" applyAlignment="1" borderId="9" applyBorder="1">
+    <xf xfId="0" fontId="70" applyFont="1" applyAlignment="1" borderId="42" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="71" applyFont="1" applyAlignment="1" borderId="42" applyBorder="1">
+    <xf xfId="0" fontId="71" applyFont="1" applyAlignment="1" borderId="43" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="72" applyFont="1" applyAlignment="1" borderId="43" applyBorder="1">
+    <xf xfId="0" fontId="72" applyFont="1" applyAlignment="1" borderId="44" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="73" applyFont="1" applyAlignment="1" borderId="44" applyBorder="1">
+    <xf xfId="0" fontId="73" applyFont="1" applyAlignment="1" borderId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="74" applyFont="1" applyAlignment="1" borderId="2" applyBorder="1">
+    <xf xfId="0" fontId="74" applyFont="1" applyAlignment="1" borderId="4" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="75" applyFont="1" applyAlignment="1" borderId="4" applyBorder="1">
+    <xf xfId="0" fontId="75" applyFont="1" applyAlignment="1" borderId="45" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="76" applyFont="1" applyAlignment="1" borderId="45" applyBorder="1">
+    <xf xfId="0" fontId="76" applyFont="1" applyAlignment="1" borderId="46" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="77" applyFont="1" applyAlignment="1" borderId="46" applyBorder="1">
+    <xf xfId="0" fontId="77" applyFont="1" applyAlignment="1" borderId="47" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="78" applyFont="1" applyAlignment="1" borderId="47" applyBorder="1">
+    <xf xfId="0" fontId="78" applyFont="1" applyAlignment="1" borderId="48" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="79" applyFont="1" applyAlignment="1" borderId="48" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" fontId="80" applyFont="1" applyAlignment="1" borderId="22" applyBorder="1">
+    <xf xfId="0" fontId="79" applyFont="1" applyAlignment="1" borderId="22" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="81" applyFont="1" borderId="22" applyBorder="1">
+    <xf xfId="0" fontId="80" applyFont="1" borderId="22" applyBorder="1">
       </xf>
-    <xf xfId="0" fontId="82" applyFont="1" borderId="3" applyBorder="1">
+    <xf xfId="0" fontId="81" applyFont="1" borderId="3" applyBorder="1">
       </xf>
-    <xf xfId="0" fontId="83" applyFont="1" borderId="49" applyBorder="1">
+    <xf xfId="0" fontId="82" applyFont="1" borderId="49" applyBorder="1">
       </xf>
+    <xf xfId="0" fontId="83" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf xfId="0" fontId="84" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf xfId="0" fontId="85" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="14"/>
     </xf>
     <xf xfId="0" fontId="86" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="14"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf xfId="0" fontId="87" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf xfId="0" fontId="88" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf xfId="0" fontId="89" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
+    <xf xfId="0" fontId="89" applyFont="1">
+      </xf>
     <xf xfId="0" fontId="90" applyFont="1">
       </xf>
-    <xf xfId="0" fontId="91" applyFont="1">
-      </xf>
-    <xf xfId="0" fontId="92" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="91" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf xfId="0" fontId="93" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="94" applyFont="1" applyAlignment="1">
+    <xf xfId="0" fontId="93" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="95" applyFont="1">
+    <xf xfId="0" fontId="94" applyFont="1">
       </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1653,56 +1647,56 @@
   </sheetViews>
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="14.399999999999999" defaultColWidth="9.072544642857142"/>
   <cols>
-    <col style="95" min="1" max="1" customWidth="1" width="6"/>
-    <col style="95" min="2" max="2" customWidth="1" width="8.88671875"/>
-    <col style="95" min="3" max="3" customWidth="1" width="8.88671875"/>
-    <col style="95" min="4" max="4" customWidth="1" width="8.88671875"/>
-    <col style="95" min="5" max="5" customWidth="1" width="7.6640625"/>
-    <col style="95" min="6" max="6" customWidth="1" width="5.6640625"/>
-    <col style="95" min="7" max="7" customWidth="1" width="4.6640625"/>
-    <col style="95" min="8" max="8" customWidth="1" width="4.88671875"/>
-    <col style="95" min="9" max="9" customWidth="1" width="8.88671875"/>
-    <col style="95" min="10" max="10" customWidth="1" width="8.88671875"/>
-    <col style="95" min="11" max="11" customWidth="1" width="8.88671875"/>
-    <col style="95" min="12" max="12" customWidth="1" width="8.88671875"/>
-    <col style="95" min="13" max="13" customWidth="1" width="6.33203125"/>
-    <col style="95" min="14" max="14" customWidth="1" width="8.88671875"/>
-    <col style="95" min="15" max="15" customWidth="1" width="8.88671875"/>
-    <col style="95" min="16" max="16" customWidth="1" width="8.88671875"/>
-    <col style="95" min="17" max="17" customWidth="1" width="8.88671875"/>
-    <col style="95" min="18" max="18" customWidth="1" width="8.88671875"/>
-    <col style="95" min="19" max="19" customWidth="1" width="8.88671875"/>
-    <col style="95" min="20" max="20" customWidth="1" width="8.88671875"/>
-    <col style="95" min="21" max="21" customWidth="1" width="8.88671875"/>
-    <col style="95" min="22" max="22" customWidth="1" width="8.88671875"/>
-    <col style="95" min="23" max="23" customWidth="1" width="8.88671875"/>
-    <col style="95" min="24" max="24" customWidth="1" width="8.88671875"/>
-    <col style="95" min="25" max="25" customWidth="1" width="8.88671875"/>
-    <col style="95" min="26" max="26" customWidth="1" width="8.88671875"/>
-    <col style="95" min="27" max="27" customWidth="1" width="8.88671875"/>
-    <col style="95" min="28" max="28" customWidth="1" width="8.88671875"/>
-    <col style="95" min="29" max="29" customWidth="1" width="8.88671875"/>
-    <col style="95" min="30" max="30" customWidth="1" width="8.88671875"/>
-    <col style="95" min="31" max="31" customWidth="1" width="8.88671875"/>
-    <col style="95" min="32" max="32" customWidth="1" width="8.88671875"/>
-    <col style="95" min="33" max="33" customWidth="1" width="8.88671875"/>
-    <col style="95" min="34" max="34" customWidth="1" width="8.88671875"/>
-    <col style="95" min="35" max="35" customWidth="1" width="8.88671875"/>
-    <col style="95" min="36" max="36" customWidth="1" width="8.88671875"/>
-    <col style="95" min="37" max="37" customWidth="1" width="8.88671875"/>
-    <col style="95" min="38" max="38" customWidth="1" width="8.88671875"/>
-    <col style="95" min="39" max="39" customWidth="1" width="8.88671875"/>
-    <col style="95" min="40" max="40" customWidth="1" width="8.88671875"/>
-    <col style="95" min="41" max="41" customWidth="1" width="8.88671875"/>
-    <col style="95" min="42" max="42" customWidth="1" width="8.88671875"/>
-    <col style="95" min="43" max="43" customWidth="1" width="8.88671875"/>
-    <col style="95" min="44" max="44" customWidth="1" width="8.88671875"/>
-    <col style="95" min="45" max="45" customWidth="1" width="8.88671875"/>
-    <col style="95" min="46" max="46" customWidth="1" width="8.88671875"/>
-    <col style="95" min="47" max="47" customWidth="1" width="8.88671875"/>
-    <col style="95" min="48" max="48" customWidth="1" width="8.88671875"/>
-    <col style="95" min="49" max="49" customWidth="1" width="8.88671875"/>
-    <col style="95" min="50" max="50" customWidth="1" width="8.88671875"/>
+    <col style="94" min="1" max="1" customWidth="1" width="6"/>
+    <col style="94" min="2" max="2" customWidth="1" width="8.88671875"/>
+    <col style="94" min="3" max="3" customWidth="1" width="8.88671875"/>
+    <col style="94" min="4" max="4" customWidth="1" width="8.88671875"/>
+    <col style="94" min="5" max="5" customWidth="1" width="7.6640625"/>
+    <col style="94" min="6" max="6" customWidth="1" width="5.6640625"/>
+    <col style="94" min="7" max="7" customWidth="1" width="4.6640625"/>
+    <col style="94" min="8" max="8" customWidth="1" width="4.88671875"/>
+    <col style="94" min="9" max="9" customWidth="1" width="8.88671875"/>
+    <col style="94" min="10" max="10" customWidth="1" width="8.88671875"/>
+    <col style="94" min="11" max="11" customWidth="1" width="8.88671875"/>
+    <col style="94" min="12" max="12" customWidth="1" width="8.88671875"/>
+    <col style="94" min="13" max="13" customWidth="1" width="6.33203125"/>
+    <col style="94" min="14" max="14" customWidth="1" width="8.88671875"/>
+    <col style="94" min="15" max="15" customWidth="1" width="8.88671875"/>
+    <col style="94" min="16" max="16" customWidth="1" width="8.88671875"/>
+    <col style="94" min="17" max="17" customWidth="1" width="8.88671875"/>
+    <col style="94" min="18" max="18" customWidth="1" width="8.88671875"/>
+    <col style="94" min="19" max="19" customWidth="1" width="8.88671875"/>
+    <col style="94" min="20" max="20" customWidth="1" width="8.88671875"/>
+    <col style="94" min="21" max="21" customWidth="1" width="8.88671875"/>
+    <col style="94" min="22" max="22" customWidth="1" width="8.88671875"/>
+    <col style="94" min="23" max="23" customWidth="1" width="8.88671875"/>
+    <col style="94" min="24" max="24" customWidth="1" width="8.88671875"/>
+    <col style="94" min="25" max="25" customWidth="1" width="8.88671875"/>
+    <col style="94" min="26" max="26" customWidth="1" width="8.88671875"/>
+    <col style="94" min="27" max="27" customWidth="1" width="8.88671875"/>
+    <col style="94" min="28" max="28" customWidth="1" width="8.88671875"/>
+    <col style="94" min="29" max="29" customWidth="1" width="8.88671875"/>
+    <col style="94" min="30" max="30" customWidth="1" width="8.88671875"/>
+    <col style="94" min="31" max="31" customWidth="1" width="8.88671875"/>
+    <col style="94" min="32" max="32" customWidth="1" width="8.88671875"/>
+    <col style="94" min="33" max="33" customWidth="1" width="8.88671875"/>
+    <col style="94" min="34" max="34" customWidth="1" width="8.88671875"/>
+    <col style="94" min="35" max="35" customWidth="1" width="8.88671875"/>
+    <col style="94" min="36" max="36" customWidth="1" width="8.88671875"/>
+    <col style="94" min="37" max="37" customWidth="1" width="8.88671875"/>
+    <col style="94" min="38" max="38" customWidth="1" width="8.88671875"/>
+    <col style="94" min="39" max="39" customWidth="1" width="8.88671875"/>
+    <col style="94" min="40" max="40" customWidth="1" width="8.88671875"/>
+    <col style="94" min="41" max="41" customWidth="1" width="8.88671875"/>
+    <col style="94" min="42" max="42" customWidth="1" width="8.88671875"/>
+    <col style="94" min="43" max="43" customWidth="1" width="8.88671875"/>
+    <col style="94" min="44" max="44" customWidth="1" width="8.88671875"/>
+    <col style="94" min="45" max="45" customWidth="1" width="8.88671875"/>
+    <col style="94" min="46" max="46" customWidth="1" width="8.88671875"/>
+    <col style="94" min="47" max="47" customWidth="1" width="8.88671875"/>
+    <col style="94" min="48" max="48" customWidth="1" width="8.88671875"/>
+    <col style="94" min="49" max="49" customWidth="1" width="8.88671875"/>
+    <col style="94" min="50" max="50" customWidth="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25" ht="18" customHeight="1">
@@ -2142,21 +2136,21 @@
       <c r="AX4" s="6">
              </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25" ht="22.5" customHeight="1">
+    <row r="5" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
       <c r="A5" s="31">
              </c>
       <c r="B5" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="n">
-        <v>8</v>
+      <c r="C5" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="24" t="n">
         <f>(C5-E5)/E5</f>
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="35">
              </c>
@@ -2257,19 +2251,19 @@
       <c r="B6" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>16</v>
+      <c r="C6" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="24" t="n">
         <f>(C6-E6)/E6</f>
         <v>-0.16666666666667</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="35">
              </c>
-      <c r="G6" s="41">
+      <c r="G6" s="40">
              </c>
       <c r="H6" s="37">
              </c>
@@ -2361,36 +2355,36 @@
              </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A7" s="42">
-             </c>
-      <c r="B7" s="43" t="n">
+      <c r="A7" s="41">
+             </c>
+      <c r="B7" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
              </c>
       <c r="D7" s="24">
         <f>(C7-E7)/E7</f>
       </c>
-      <c r="E7" s="45">
-             </c>
-      <c r="F7" s="46">
-             </c>
-      <c r="G7" s="47" t="n">
+      <c r="E7" s="44">
+             </c>
+      <c r="F7" s="45">
+             </c>
+      <c r="G7" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="46">
-             </c>
-      <c r="I7" s="45">
+      <c r="H7" s="45">
+             </c>
+      <c r="I7" s="44">
              </c>
       <c r="J7" s="24">
         <f>(I7-K7)/K7</f>
       </c>
-      <c r="K7" s="48">
-             </c>
-      <c r="L7" s="49" t="n">
+      <c r="K7" s="47">
+             </c>
+      <c r="L7" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="41">
              </c>
       <c r="N7" s="5">
              </c>
@@ -2481,11 +2475,11 @@
       </c>
       <c r="E8" s="25">
              </c>
-      <c r="F8" s="50">
-             </c>
-      <c r="G8" s="51">
-             </c>
-      <c r="H8" s="50">
+      <c r="F8" s="49">
+             </c>
+      <c r="G8" s="50">
+             </c>
+      <c r="H8" s="49">
              </c>
       <c r="I8" s="25">
              </c>
@@ -2581,7 +2575,7 @@
       <c r="B9" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="33">
              </c>
       <c r="D9" s="24">
         <f>(C9-E9)/E9</f>
@@ -2590,7 +2584,7 @@
              </c>
       <c r="F9" s="35">
              </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
              </c>
       <c r="H9" s="37">
              </c>
@@ -2687,7 +2681,7 @@
       <c r="B10" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="33">
              </c>
       <c r="D10" s="24">
         <f>(C10-E10)/E10</f>
@@ -2696,7 +2690,7 @@
              </c>
       <c r="F10" s="35">
              </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
              </c>
       <c r="H10" s="37">
              </c>
@@ -2788,36 +2782,36 @@
              </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A11" s="42">
-             </c>
-      <c r="B11" s="43" t="n">
+      <c r="A11" s="41">
+             </c>
+      <c r="B11" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
              </c>
       <c r="D11" s="24">
         <f>(C11-E11)/E11</f>
       </c>
-      <c r="E11" s="45">
-             </c>
-      <c r="F11" s="46">
-             </c>
-      <c r="G11" s="47" t="n">
+      <c r="E11" s="44">
+             </c>
+      <c r="F11" s="45">
+             </c>
+      <c r="G11" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="46">
-             </c>
-      <c r="I11" s="45">
+      <c r="H11" s="45">
+             </c>
+      <c r="I11" s="44">
              </c>
       <c r="J11" s="24">
         <f>(I11-K11)/K11</f>
       </c>
-      <c r="K11" s="48">
-             </c>
-      <c r="L11" s="49" t="n">
+      <c r="K11" s="47">
+             </c>
+      <c r="L11" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="41">
              </c>
       <c r="N11" s="5">
              </c>
@@ -2908,11 +2902,11 @@
       </c>
       <c r="E12" s="25">
              </c>
-      <c r="F12" s="50">
-             </c>
-      <c r="G12" s="51">
-             </c>
-      <c r="H12" s="50">
+      <c r="F12" s="49">
+             </c>
+      <c r="G12" s="50">
+             </c>
+      <c r="H12" s="49">
              </c>
       <c r="I12" s="25">
              </c>
@@ -3008,7 +3002,7 @@
       <c r="B13" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="33">
              </c>
       <c r="D13" s="24">
         <f>(C13-E13)/E13</f>
@@ -3017,7 +3011,7 @@
              </c>
       <c r="F13" s="35">
              </c>
-      <c r="G13" s="52">
+      <c r="G13" s="51">
              </c>
       <c r="H13" s="37">
              </c>
@@ -3114,7 +3108,7 @@
       <c r="B14" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="33">
              </c>
       <c r="D14" s="24">
         <f>(C14-E14)/E14</f>
@@ -3123,7 +3117,7 @@
              </c>
       <c r="F14" s="35">
              </c>
-      <c r="G14" s="41">
+      <c r="G14" s="40">
              </c>
       <c r="H14" s="37">
              </c>
@@ -3215,36 +3209,36 @@
              </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A15" s="42">
-             </c>
-      <c r="B15" s="43" t="n">
+      <c r="A15" s="41">
+             </c>
+      <c r="B15" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="43">
              </c>
       <c r="D15" s="24">
         <f>(C15-E15)/E15</f>
       </c>
-      <c r="E15" s="45">
-             </c>
-      <c r="F15" s="46">
-             </c>
-      <c r="G15" s="47" t="n">
+      <c r="E15" s="44">
+             </c>
+      <c r="F15" s="45">
+             </c>
+      <c r="G15" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="46">
-             </c>
-      <c r="I15" s="45">
+      <c r="H15" s="45">
+             </c>
+      <c r="I15" s="44">
              </c>
       <c r="J15" s="24">
         <f>(I15-K15)/K15</f>
       </c>
-      <c r="K15" s="48">
-             </c>
-      <c r="L15" s="49" t="n">
+      <c r="K15" s="47">
+             </c>
+      <c r="L15" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="41">
              </c>
       <c r="N15" s="5">
              </c>
@@ -3335,11 +3329,11 @@
       </c>
       <c r="E16" s="25">
              </c>
-      <c r="F16" s="50">
-             </c>
-      <c r="G16" s="51">
-             </c>
-      <c r="H16" s="50">
+      <c r="F16" s="49">
+             </c>
+      <c r="G16" s="50">
+             </c>
+      <c r="H16" s="49">
              </c>
       <c r="I16" s="25">
              </c>
@@ -3435,7 +3429,7 @@
       <c r="B17" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="33">
              </c>
       <c r="D17" s="24">
         <f>(C17-E17)/E17</f>
@@ -3444,7 +3438,7 @@
              </c>
       <c r="F17" s="35">
              </c>
-      <c r="G17" s="52">
+      <c r="G17" s="51">
              </c>
       <c r="H17" s="37">
              </c>
@@ -3541,7 +3535,7 @@
       <c r="B18" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="33">
              </c>
       <c r="D18" s="24">
         <f>(C18-E18)/E18</f>
@@ -3550,7 +3544,7 @@
              </c>
       <c r="F18" s="35">
              </c>
-      <c r="G18" s="41">
+      <c r="G18" s="40">
              </c>
       <c r="H18" s="37">
              </c>
@@ -3642,36 +3636,36 @@
              </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A19" s="42">
-             </c>
-      <c r="B19" s="43" t="n">
+      <c r="A19" s="41">
+             </c>
+      <c r="B19" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="43">
              </c>
       <c r="D19" s="24">
         <f>(C19-E19)/E19</f>
       </c>
-      <c r="E19" s="45">
-             </c>
-      <c r="F19" s="46">
-             </c>
-      <c r="G19" s="47" t="n">
+      <c r="E19" s="44">
+             </c>
+      <c r="F19" s="45">
+             </c>
+      <c r="G19" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="46">
-             </c>
-      <c r="I19" s="45">
+      <c r="H19" s="45">
+             </c>
+      <c r="I19" s="44">
              </c>
       <c r="J19" s="24">
         <f>(I19-K19)/K19</f>
       </c>
-      <c r="K19" s="48">
-             </c>
-      <c r="L19" s="49" t="n">
+      <c r="K19" s="47">
+             </c>
+      <c r="L19" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="41">
              </c>
       <c r="N19" s="5">
              </c>
@@ -3762,11 +3756,11 @@
       </c>
       <c r="E20" s="25">
              </c>
-      <c r="F20" s="50">
-             </c>
-      <c r="G20" s="51">
-             </c>
-      <c r="H20" s="50">
+      <c r="F20" s="49">
+             </c>
+      <c r="G20" s="50">
+             </c>
+      <c r="H20" s="49">
              </c>
       <c r="I20" s="25">
              </c>
@@ -3862,7 +3856,7 @@
       <c r="B21" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="33">
              </c>
       <c r="D21" s="24">
         <f>(C21-E21)/E21</f>
@@ -3871,7 +3865,7 @@
              </c>
       <c r="F21" s="35">
              </c>
-      <c r="G21" s="52">
+      <c r="G21" s="51">
              </c>
       <c r="H21" s="37">
              </c>
@@ -3968,7 +3962,7 @@
       <c r="B22" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="33">
              </c>
       <c r="D22" s="24">
         <f>(C22-E22)/E22</f>
@@ -3977,7 +3971,7 @@
              </c>
       <c r="F22" s="35">
              </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
              </c>
       <c r="H22" s="37">
              </c>
@@ -4069,36 +4063,36 @@
              </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A23" s="42">
-             </c>
-      <c r="B23" s="43" t="n">
+      <c r="A23" s="41">
+             </c>
+      <c r="B23" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="43">
              </c>
       <c r="D23" s="24">
         <f>(C23-E23)/E23</f>
       </c>
-      <c r="E23" s="45">
-             </c>
-      <c r="F23" s="46">
-             </c>
-      <c r="G23" s="47" t="n">
+      <c r="E23" s="44">
+             </c>
+      <c r="F23" s="45">
+             </c>
+      <c r="G23" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="46">
-             </c>
-      <c r="I23" s="45">
+      <c r="H23" s="45">
+             </c>
+      <c r="I23" s="44">
              </c>
       <c r="J23" s="24">
         <f>(I23-K23)/K23</f>
       </c>
-      <c r="K23" s="48">
-             </c>
-      <c r="L23" s="49" t="n">
+      <c r="K23" s="47">
+             </c>
+      <c r="L23" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="41">
              </c>
       <c r="N23" s="5">
              </c>
@@ -4189,11 +4183,11 @@
       </c>
       <c r="E24" s="25">
              </c>
-      <c r="F24" s="50">
-             </c>
-      <c r="G24" s="51">
-             </c>
-      <c r="H24" s="50">
+      <c r="F24" s="49">
+             </c>
+      <c r="G24" s="50">
+             </c>
+      <c r="H24" s="49">
              </c>
       <c r="I24" s="25">
              </c>
@@ -4289,7 +4283,7 @@
       <c r="B25" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="33">
              </c>
       <c r="D25" s="24">
         <f>(C25-E25)/E25</f>
@@ -4298,7 +4292,7 @@
              </c>
       <c r="F25" s="35">
              </c>
-      <c r="G25" s="52">
+      <c r="G25" s="51">
              </c>
       <c r="H25" s="37">
              </c>
@@ -4395,7 +4389,7 @@
       <c r="B26" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="33">
              </c>
       <c r="D26" s="24">
         <f>(C26-E26)/E26</f>
@@ -4404,7 +4398,7 @@
              </c>
       <c r="F26" s="35">
              </c>
-      <c r="G26" s="41">
+      <c r="G26" s="40">
              </c>
       <c r="H26" s="37">
              </c>
@@ -4496,36 +4490,36 @@
              </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A27" s="42">
-             </c>
-      <c r="B27" s="43" t="n">
+      <c r="A27" s="41">
+             </c>
+      <c r="B27" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="43">
              </c>
       <c r="D27" s="24">
         <f>(C27-E27)/E27</f>
       </c>
-      <c r="E27" s="45">
-             </c>
-      <c r="F27" s="46">
-             </c>
-      <c r="G27" s="47" t="n">
+      <c r="E27" s="44">
+             </c>
+      <c r="F27" s="45">
+             </c>
+      <c r="G27" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="H27" s="46">
-             </c>
-      <c r="I27" s="45">
+      <c r="H27" s="45">
+             </c>
+      <c r="I27" s="44">
              </c>
       <c r="J27" s="24">
         <f>(I27-K27)/K27</f>
       </c>
-      <c r="K27" s="48">
-             </c>
-      <c r="L27" s="49" t="n">
+      <c r="K27" s="47">
+             </c>
+      <c r="L27" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="41">
              </c>
       <c r="N27" s="5">
              </c>
@@ -4616,11 +4610,11 @@
       </c>
       <c r="E28" s="25">
              </c>
-      <c r="F28" s="50">
-             </c>
-      <c r="G28" s="51">
-             </c>
-      <c r="H28" s="50">
+      <c r="F28" s="49">
+             </c>
+      <c r="G28" s="50">
+             </c>
+      <c r="H28" s="49">
              </c>
       <c r="I28" s="25">
              </c>
@@ -4716,7 +4710,7 @@
       <c r="B29" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="33">
              </c>
       <c r="D29" s="24">
         <f>(C29-E29)/E29</f>
@@ -4725,7 +4719,7 @@
              </c>
       <c r="F29" s="35">
              </c>
-      <c r="G29" s="52">
+      <c r="G29" s="51">
              </c>
       <c r="H29" s="37">
              </c>
@@ -4822,7 +4816,7 @@
       <c r="B30" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="33">
              </c>
       <c r="D30" s="24">
         <f>(C30-E30)/E30</f>
@@ -4831,7 +4825,7 @@
              </c>
       <c r="F30" s="35">
              </c>
-      <c r="G30" s="41">
+      <c r="G30" s="40">
              </c>
       <c r="H30" s="37">
              </c>
@@ -4923,36 +4917,36 @@
              </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
-      <c r="A31" s="42">
-             </c>
-      <c r="B31" s="43" t="n">
+      <c r="A31" s="41">
+             </c>
+      <c r="B31" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="43">
              </c>
       <c r="D31" s="24">
         <f>(C31-E31)/E31</f>
       </c>
-      <c r="E31" s="45">
-             </c>
-      <c r="F31" s="46">
-             </c>
-      <c r="G31" s="47" t="n">
+      <c r="E31" s="44">
+             </c>
+      <c r="F31" s="45">
+             </c>
+      <c r="G31" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="H31" s="46">
-             </c>
-      <c r="I31" s="45">
+      <c r="H31" s="45">
+             </c>
+      <c r="I31" s="44">
              </c>
       <c r="J31" s="24">
         <f>(I31-K31)/K31</f>
       </c>
-      <c r="K31" s="48">
-             </c>
-      <c r="L31" s="49" t="n">
+      <c r="K31" s="47">
+             </c>
+      <c r="L31" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="41">
              </c>
       <c r="N31" s="5">
              </c>
@@ -5043,20 +5037,20 @@
       </c>
       <c r="E32" s="25">
              </c>
-      <c r="F32" s="50">
-             </c>
-      <c r="G32" s="51">
-             </c>
-      <c r="H32" s="50">
-             </c>
-      <c r="I32" s="53">
-             </c>
-      <c r="J32" s="53">
+      <c r="F32" s="49">
+             </c>
+      <c r="G32" s="50">
+             </c>
+      <c r="H32" s="49">
+             </c>
+      <c r="I32" s="52">
+             </c>
+      <c r="J32" s="52">
         <f>(I32-K32)/K32</f>
       </c>
-      <c r="K32" s="54">
-             </c>
-      <c r="L32" s="55" t="n">
+      <c r="K32" s="53">
+             </c>
+      <c r="L32" s="54" t="n">
         <v>1</v>
       </c>
       <c r="M32" s="21" t="n">
@@ -5140,33 +5134,33 @@
     <row r="33" x14ac:dyDescent="0.25" ht="12" customHeight="1">
       <c r="A33" s="31">
              </c>
-      <c r="B33" s="56" t="n">
+      <c r="B33" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="57">
-             </c>
-      <c r="D33" s="58">
+      <c r="C33" s="56">
+             </c>
+      <c r="D33" s="57">
         <f>(E33-C33)/E33</f>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="57">
              </c>
       <c r="F33" s="35">
              </c>
-      <c r="G33" s="52">
-             </c>
-      <c r="H33" s="59">
-             </c>
-      <c r="I33" s="60">
-             </c>
-      <c r="J33" s="60">
+      <c r="G33" s="51">
+             </c>
+      <c r="H33" s="58">
+             </c>
+      <c r="I33" s="59">
+             </c>
+      <c r="J33" s="59">
         <f>(K33-I33)/K33</f>
       </c>
-      <c r="K33" s="60">
-             </c>
-      <c r="L33" s="61" t="n">
+      <c r="K33" s="59">
+             </c>
+      <c r="L33" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="M33" s="62">
+      <c r="M33" s="61">
              </c>
       <c r="N33" s="5">
              </c>
@@ -5246,29 +5240,29 @@
     <row r="34" x14ac:dyDescent="0.25" hidden="1">
       <c r="A34" s="31">
              </c>
-      <c r="B34" s="63">
-             </c>
-      <c r="C34" s="64">
-             </c>
-      <c r="D34" s="65">
-             </c>
-      <c r="E34" s="65">
+      <c r="B34" s="62">
+             </c>
+      <c r="C34" s="63">
+             </c>
+      <c r="D34" s="64">
+             </c>
+      <c r="E34" s="64">
              </c>
       <c r="F34" s="35">
              </c>
       <c r="G34" s="36">
              </c>
-      <c r="H34" s="59">
-             </c>
-      <c r="I34" s="60">
-             </c>
-      <c r="J34" s="60">
-             </c>
-      <c r="K34" s="60">
-             </c>
-      <c r="L34" s="61">
-             </c>
-      <c r="M34" s="62">
+      <c r="H34" s="58">
+             </c>
+      <c r="I34" s="59">
+             </c>
+      <c r="J34" s="59">
+             </c>
+      <c r="K34" s="59">
+             </c>
+      <c r="L34" s="60">
+             </c>
+      <c r="M34" s="61">
              </c>
       <c r="N34" s="5">
              </c>
@@ -5348,29 +5342,29 @@
     <row r="35" x14ac:dyDescent="0.25" hidden="1">
       <c r="A35" s="31">
              </c>
-      <c r="B35" s="63">
-             </c>
-      <c r="C35" s="64">
-             </c>
-      <c r="D35" s="65">
-             </c>
-      <c r="E35" s="65">
+      <c r="B35" s="62">
+             </c>
+      <c r="C35" s="63">
+             </c>
+      <c r="D35" s="64">
+             </c>
+      <c r="E35" s="64">
              </c>
       <c r="F35" s="35">
              </c>
       <c r="G35" s="36">
              </c>
-      <c r="H35" s="59">
-             </c>
-      <c r="I35" s="60">
-             </c>
-      <c r="J35" s="60">
-             </c>
-      <c r="K35" s="60">
-             </c>
-      <c r="L35" s="61">
-             </c>
-      <c r="M35" s="62">
+      <c r="H35" s="58">
+             </c>
+      <c r="I35" s="59">
+             </c>
+      <c r="J35" s="59">
+             </c>
+      <c r="K35" s="59">
+             </c>
+      <c r="L35" s="60">
+             </c>
+      <c r="M35" s="61">
              </c>
       <c r="N35" s="5">
              </c>
@@ -5450,29 +5444,29 @@
     <row r="36" x14ac:dyDescent="0.25" hidden="1">
       <c r="A36" s="31">
              </c>
-      <c r="B36" s="63">
-             </c>
-      <c r="C36" s="64">
-             </c>
-      <c r="D36" s="65">
-             </c>
-      <c r="E36" s="65">
+      <c r="B36" s="62">
+             </c>
+      <c r="C36" s="63">
+             </c>
+      <c r="D36" s="64">
+             </c>
+      <c r="E36" s="64">
              </c>
       <c r="F36" s="35">
              </c>
       <c r="G36" s="36">
              </c>
-      <c r="H36" s="59">
-             </c>
-      <c r="I36" s="60">
-             </c>
-      <c r="J36" s="60">
-             </c>
-      <c r="K36" s="60">
-             </c>
-      <c r="L36" s="61">
-             </c>
-      <c r="M36" s="62">
+      <c r="H36" s="58">
+             </c>
+      <c r="I36" s="59">
+             </c>
+      <c r="J36" s="59">
+             </c>
+      <c r="K36" s="59">
+             </c>
+      <c r="L36" s="60">
+             </c>
+      <c r="M36" s="61">
              </c>
       <c r="N36" s="5">
              </c>
@@ -5552,29 +5546,29 @@
     <row r="37" x14ac:dyDescent="0.25" hidden="1">
       <c r="A37" s="31">
              </c>
-      <c r="B37" s="63">
-             </c>
-      <c r="C37" s="64">
-             </c>
-      <c r="D37" s="65">
-             </c>
-      <c r="E37" s="65">
+      <c r="B37" s="62">
+             </c>
+      <c r="C37" s="63">
+             </c>
+      <c r="D37" s="64">
+             </c>
+      <c r="E37" s="64">
              </c>
       <c r="F37" s="35">
              </c>
       <c r="G37" s="36">
              </c>
-      <c r="H37" s="59">
-             </c>
-      <c r="I37" s="60">
-             </c>
-      <c r="J37" s="60">
-             </c>
-      <c r="K37" s="60">
-             </c>
-      <c r="L37" s="61">
-             </c>
-      <c r="M37" s="62">
+      <c r="H37" s="58">
+             </c>
+      <c r="I37" s="59">
+             </c>
+      <c r="J37" s="59">
+             </c>
+      <c r="K37" s="59">
+             </c>
+      <c r="L37" s="60">
+             </c>
+      <c r="M37" s="61">
              </c>
       <c r="N37" s="5">
              </c>
@@ -5654,29 +5648,29 @@
     <row r="38" x14ac:dyDescent="0.25" hidden="1">
       <c r="A38" s="31">
              </c>
-      <c r="B38" s="66">
-             </c>
-      <c r="C38" s="67">
-             </c>
-      <c r="D38" s="68">
-             </c>
-      <c r="E38" s="68">
+      <c r="B38" s="65">
+             </c>
+      <c r="C38" s="66">
+             </c>
+      <c r="D38" s="67">
+             </c>
+      <c r="E38" s="67">
              </c>
       <c r="F38" s="35">
              </c>
       <c r="G38" s="36">
              </c>
-      <c r="H38" s="59">
-             </c>
-      <c r="I38" s="60">
-             </c>
-      <c r="J38" s="60">
-             </c>
-      <c r="K38" s="60">
-             </c>
-      <c r="L38" s="61">
-             </c>
-      <c r="M38" s="62">
+      <c r="H38" s="58">
+             </c>
+      <c r="I38" s="59">
+             </c>
+      <c r="J38" s="59">
+             </c>
+      <c r="K38" s="59">
+             </c>
+      <c r="L38" s="60">
+             </c>
+      <c r="M38" s="61">
              </c>
       <c r="N38" s="5">
              </c>
@@ -5759,7 +5753,7 @@
       <c r="B39" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="33">
              </c>
       <c r="D39" s="34">
         <f>(E39-C39)/E39</f>
@@ -5770,19 +5764,19 @@
              </c>
       <c r="G39" s="36">
              </c>
-      <c r="H39" s="59">
-             </c>
-      <c r="I39" s="60">
-             </c>
-      <c r="J39" s="60">
+      <c r="H39" s="58">
+             </c>
+      <c r="I39" s="59">
+             </c>
+      <c r="J39" s="59">
         <f>(K39-I39)/K39</f>
       </c>
-      <c r="K39" s="60">
-             </c>
-      <c r="L39" s="61" t="n">
+      <c r="K39" s="59">
+             </c>
+      <c r="L39" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="M39" s="62">
+      <c r="M39" s="61">
              </c>
       <c r="N39" s="5">
              </c>
@@ -5860,35 +5854,35 @@
              </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25" ht="66" customHeight="1">
-      <c r="A40" s="51">
+      <c r="A40" s="50">
              </c>
       <c r="B40" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="33">
              </c>
       <c r="D40" s="34">
         <f>(E40-C40)/E40</f>
       </c>
       <c r="E40" s="34">
              </c>
-      <c r="F40" s="69">
-             </c>
-      <c r="G40" s="41">
-             </c>
-      <c r="H40" s="70">
-             </c>
-      <c r="I40" s="71">
-             </c>
-      <c r="J40" s="60">
+      <c r="F40" s="68">
+             </c>
+      <c r="G40" s="40">
+             </c>
+      <c r="H40" s="69">
+             </c>
+      <c r="I40" s="70">
+             </c>
+      <c r="J40" s="59">
         <f>(K40-I40)/K40</f>
       </c>
-      <c r="K40" s="72">
-             </c>
-      <c r="L40" s="73" t="n">
+      <c r="K40" s="71">
+             </c>
+      <c r="L40" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="M40" s="51">
+      <c r="M40" s="50">
              </c>
       <c r="N40" s="5">
              </c>
@@ -5966,36 +5960,36 @@
              </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A41" s="47" t="n">
+      <c r="A41" s="46" t="n">
         <v>9</v>
       </c>
       <c r="B41" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="33">
              </c>
       <c r="D41" s="34">
         <f>(E41-C41)/E41</f>
       </c>
       <c r="E41" s="34">
              </c>
-      <c r="F41" s="74">
-             </c>
-      <c r="G41" s="52">
-             </c>
-      <c r="H41" s="75">
-             </c>
-      <c r="I41" s="76">
-             </c>
-      <c r="J41" s="60">
+      <c r="F41" s="73">
+             </c>
+      <c r="G41" s="51">
+             </c>
+      <c r="H41" s="74">
+             </c>
+      <c r="I41" s="75">
+             </c>
+      <c r="J41" s="59">
         <f>(K41-I41)/K41</f>
       </c>
-      <c r="K41" s="77">
+      <c r="K41" s="76">
              </c>
       <c r="L41" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="M41" s="47" t="n">
+      <c r="M41" s="46" t="n">
         <v>9</v>
       </c>
       <c r="N41" s="5">
@@ -6079,7 +6073,7 @@
       <c r="B42" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="33">
              </c>
       <c r="D42" s="34">
         <f>(E42-C42)/E42</f>
@@ -6092,12 +6086,12 @@
              </c>
       <c r="H42" s="37">
              </c>
-      <c r="I42" s="76">
-             </c>
-      <c r="J42" s="60">
+      <c r="I42" s="75">
+             </c>
+      <c r="J42" s="59">
         <f>(K42-I42)/K42</f>
       </c>
-      <c r="K42" s="77">
+      <c r="K42" s="76">
              </c>
       <c r="L42" s="39" t="n">
         <v>2</v>
@@ -6185,7 +6179,7 @@
       <c r="B43" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="33">
              </c>
       <c r="D43" s="34">
         <f>(E43-C43)/E43</f>
@@ -6198,12 +6192,12 @@
              </c>
       <c r="H43" s="37">
              </c>
-      <c r="I43" s="76">
-             </c>
-      <c r="J43" s="60">
+      <c r="I43" s="75">
+             </c>
+      <c r="J43" s="59">
         <f>(K43-I43)/K43</f>
       </c>
-      <c r="K43" s="77">
+      <c r="K43" s="76">
              </c>
       <c r="L43" s="39" t="n">
         <v>3</v>
@@ -6286,35 +6280,35 @@
              </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A44" s="42">
-             </c>
-      <c r="B44" s="43" t="n">
+      <c r="A44" s="41">
+             </c>
+      <c r="B44" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="43">
              </c>
       <c r="D44" s="34">
         <f>(E44-C44)/E44</f>
       </c>
-      <c r="E44" s="45">
-             </c>
-      <c r="F44" s="69">
-             </c>
-      <c r="G44" s="41">
-             </c>
-      <c r="H44" s="70">
-             </c>
-      <c r="I44" s="78">
-             </c>
-      <c r="J44" s="60">
+      <c r="E44" s="44">
+             </c>
+      <c r="F44" s="68">
+             </c>
+      <c r="G44" s="40">
+             </c>
+      <c r="H44" s="69">
+             </c>
+      <c r="I44" s="77">
+             </c>
+      <c r="J44" s="59">
         <f>(K44-I44)/K44</f>
       </c>
-      <c r="K44" s="79">
-             </c>
-      <c r="L44" s="49" t="n">
+      <c r="K44" s="78">
+             </c>
+      <c r="L44" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="41">
              </c>
       <c r="N44" s="5">
              </c>
@@ -6392,32 +6386,32 @@
              </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25" ht="16.2" customHeight="1">
-      <c r="A45" s="80" t="s">
-        <v>18</v>
+      <c r="A45" s="79" t="s">
+        <v>19</v>
       </c>
-      <c r="B45" s="81">
-             </c>
-      <c r="C45" s="81">
-             </c>
-      <c r="D45" s="82">
-             </c>
-      <c r="E45" s="81">
-             </c>
-      <c r="F45" s="82">
-             </c>
-      <c r="G45" s="82">
-             </c>
-      <c r="H45" s="82">
-             </c>
-      <c r="I45" s="81">
-             </c>
-      <c r="J45" s="83">
-             </c>
-      <c r="K45" s="81">
-             </c>
-      <c r="L45" s="81">
-             </c>
-      <c r="M45" s="81">
+      <c r="B45" s="80">
+             </c>
+      <c r="C45" s="80">
+             </c>
+      <c r="D45" s="81">
+             </c>
+      <c r="E45" s="80">
+             </c>
+      <c r="F45" s="81">
+             </c>
+      <c r="G45" s="81">
+             </c>
+      <c r="H45" s="81">
+             </c>
+      <c r="I45" s="80">
+             </c>
+      <c r="J45" s="82">
+             </c>
+      <c r="K45" s="80">
+             </c>
+      <c r="L45" s="80">
+             </c>
+      <c r="M45" s="80">
              </c>
       <c r="N45" s="6">
              </c>
@@ -6497,15 +6491,15 @@
     <row r="46" x14ac:dyDescent="0.25" ht="15.599999999999998" customHeight="1">
       <c r="A46" s="6">
              </c>
-      <c r="B46" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="84" t="s">
+      <c r="B46" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="85" t="s">
+      <c r="C46" s="83" t="s">
         <v>21</v>
       </c>
+      <c r="D46" s="84" t="s">
+        <v>22</v>
+      </c>
       <c r="E46" s="6">
              </c>
       <c r="F46" s="6">
@@ -6600,17 +6594,17 @@
              </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
-        <v>22</v>
+      <c r="A47" s="85" t="s">
+        <v>23</v>
       </c>
       <c r="B47" s="6">
              </c>
-      <c r="C47" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="88" t="s">
+      <c r="C47" s="86" t="s">
         <v>24</v>
       </c>
+      <c r="D47" s="87" t="s">
+        <v>25</v>
+      </c>
       <c r="E47" s="6">
              </c>
       <c r="F47" s="6">
@@ -6705,16 +6699,16 @@
              </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
-      <c r="A48" s="89">
+      <c r="A48" s="88">
              </c>
       <c r="B48" s="6">
              </c>
-      <c r="C48" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="91" t="s">
+      <c r="C48" s="89" t="s">
         <v>26</v>
       </c>
+      <c r="D48" s="90" t="s">
+        <v>27</v>
+      </c>
       <c r="E48" s="6">
              </c>
       <c r="F48" s="6">
@@ -6809,16 +6803,16 @@
              </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
-      <c r="A49" s="89">
-             </c>
-      <c r="B49" s="92">
-             </c>
-      <c r="C49" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="91" t="s">
+      <c r="A49" s="88">
+             </c>
+      <c r="B49" s="91">
+             </c>
+      <c r="C49" s="89" t="s">
         <v>28</v>
       </c>
+      <c r="D49" s="90" t="s">
+        <v>29</v>
+      </c>
       <c r="E49" s="6">
              </c>
       <c r="F49" s="6">
@@ -6913,8 +6907,8 @@
              </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
-      <c r="A50" s="89" t="s">
-        <v>29</v>
+      <c r="A50" s="88" t="s">
+        <v>30</v>
       </c>
       <c r="B50" s="6">
              </c>
@@ -7016,7 +7010,7 @@
              </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="92">
+      <c r="A51" s="91">
              </c>
       <c r="B51" s="6">
              </c>
@@ -7118,27 +7112,27 @@
              </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25" ht="46.2" customHeight="1">
-      <c r="A52" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="93">
-             </c>
-      <c r="C52" s="93">
-             </c>
-      <c r="D52" s="93">
-             </c>
-      <c r="E52" s="6">
-             </c>
-      <c r="F52" s="93" t="s">
+      <c r="A52" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="93">
-             </c>
-      <c r="H52" s="93">
-             </c>
-      <c r="I52" s="93">
-             </c>
-      <c r="J52" s="93">
+      <c r="B52" s="92">
+             </c>
+      <c r="C52" s="92">
+             </c>
+      <c r="D52" s="92">
+             </c>
+      <c r="E52" s="6">
+             </c>
+      <c r="F52" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="92">
+             </c>
+      <c r="H52" s="92">
+             </c>
+      <c r="I52" s="92">
+             </c>
+      <c r="J52" s="92">
              </c>
       <c r="K52" s="6">
              </c>
@@ -7222,11 +7216,11 @@
              </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="s">
-        <v>32</v>
+      <c r="A53" s="93" t="s">
+        <v>33</v>
       </c>
-      <c r="B53" s="94" t="s">
-        <v>32</v>
+      <c r="B53" s="93" t="s">
+        <v>33</v>
       </c>
       <c r="C53" s="6">
              </c>
@@ -7326,7 +7320,7 @@
              </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
-      <c r="A54" s="92">
+      <c r="A54" s="91">
              </c>
       <c r="B54" s="6">
              </c>
